--- a/Navy VR data HFES 2025.xlsx
+++ b/Navy VR data HFES 2025.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renee\Documents\GitHub\Immersive-VR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A792C1-7297-4F53-8A44-D3489911BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A6615D-C777-4F74-8746-D7FD8BBE87DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12705" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15270" yWindow="-18255" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LMM Data" sheetId="1" r:id="rId1"/>
     <sheet name="Survey Scores" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Survey Scores'!$A$2:$CR$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,6 +46,7 @@
     <author>tc={B7E1FC37-150C-4010-B00B-4FAC39E5924A}</author>
     <author>tc={D25673BA-C361-4A05-9F1F-41625A4F31B5}</author>
     <author>tc={B41DF327-100A-4C9A-BBCB-0544F2AAD3F0}</author>
+    <author>tc={8C573D93-EE0F-4F39-AB4D-65EA638580BA}</author>
     <author>tc={BCC540ED-70A4-430C-A56D-F125DB1C64A4}</author>
     <author>tc={DB1E7670-188A-4D7F-8E7C-9ED3275FFCEA}</author>
   </authors>
@@ -80,7 +84,15 @@
 </t>
       </text>
     </comment>
-    <comment ref="R60" authorId="4" shapeId="0" xr:uid="{BCC540ED-70A4-430C-A56D-F125DB1C64A4}">
+    <comment ref="B58" authorId="4" shapeId="0" xr:uid="{8C573D93-EE0F-4F39-AB4D-65EA638580BA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Test aborted halfway through, resumed on the next day. Because of this, there are 2 rows for this subject at T1</t>
+      </text>
+    </comment>
+    <comment ref="R60" authorId="5" shapeId="0" xr:uid="{BCC540ED-70A4-430C-A56D-F125DB1C64A4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,7 +100,7 @@
     Data point removed, non-adherence</t>
       </text>
     </comment>
-    <comment ref="S60" authorId="5" shapeId="0" xr:uid="{DB1E7670-188A-4D7F-8E7C-9ED3275FFCEA}">
+    <comment ref="S60" authorId="6" shapeId="0" xr:uid="{DB1E7670-188A-4D7F-8E7C-9ED3275FFCEA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="255">
   <si>
     <t>PANAS PA</t>
   </si>
@@ -820,6 +832,57 @@
   <si>
     <t xml:space="preserve">Data used for linear mixed models. Includes only measures administed to all three groups at all three time points: NASA TLX, PANAS PA and NA, and BRS and the Cognition battery. All cognition metrics are the final scores adjusted for both practice and stimulus corrections
 Subjects 5 and 12 are not included on this sheet as they had no baseline, checkpoint, or post-experiment data. Subjects with blank survey cells were removed for careless responses or missing data. Note: there are two rows for S25 at T1 - Cognition administration was interrupted halfway through and resumed on the following day. </t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>PRS-Total.VR1</t>
+  </si>
+  <si>
+    <t>PRS - Total</t>
+  </si>
+  <si>
+    <t>IPQ - Total</t>
+  </si>
+  <si>
+    <t>IPQ-Total.VR4</t>
+  </si>
+  <si>
+    <t>PRS-Total.VR4</t>
+  </si>
+  <si>
+    <t>PRS-Total.VR3</t>
+  </si>
+  <si>
+    <t>IPQ-Total.VR3</t>
+  </si>
+  <si>
+    <t>PRS-Total.VR2</t>
+  </si>
+  <si>
+    <t>IPQ-Total.VR2</t>
   </si>
 </sst>
 </file>
@@ -828,7 +891,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -936,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -944,19 +1007,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1256,6 +1318,9 @@
     <text xml:space="preserve">Data point removed, non-adherence
 </text>
   </threadedComment>
+  <threadedComment ref="B58" dT="2025-09-22T16:00:35.08" personId="{0937D6DD-092D-4C25-AA2B-4B7F17683E94}" id="{8C573D93-EE0F-4F39-AB4D-65EA638580BA}">
+    <text>Test aborted halfway through, resumed on the next day. Because of this, there are 2 rows for this subject at T1</text>
+  </threadedComment>
   <threadedComment ref="R60" dT="2025-06-26T15:22:54.96" personId="{0937D6DD-092D-4C25-AA2B-4B7F17683E94}" id="{BCC540ED-70A4-430C-A56D-F125DB1C64A4}">
     <text>Data point removed, non-adherence</text>
   </threadedComment>
@@ -1269,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1285,7 +1350,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>237</v>
       </c>
       <c r="H1" t="s">
@@ -1299,7 +1364,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1394,7 +1459,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
@@ -1489,7 +1554,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
@@ -1584,7 +1649,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
@@ -1679,7 +1744,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6" t="s">
@@ -1774,7 +1839,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B7" t="s">
@@ -1858,7 +1923,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
       <c r="B8" t="s">
@@ -1942,7 +2007,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
       <c r="B9" t="s">
@@ -2037,7 +2102,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
       <c r="B10" t="s">
@@ -2132,7 +2197,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
       <c r="B11" t="s">
@@ -2227,7 +2292,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" t="s">
         <v>55</v>
       </c>
       <c r="B12" t="s">
@@ -2322,7 +2387,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>57</v>
       </c>
       <c r="B13" t="s">
@@ -2417,7 +2482,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>59</v>
       </c>
       <c r="B14" t="s">
@@ -2512,7 +2577,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>61</v>
       </c>
       <c r="B15" t="s">
@@ -2607,7 +2672,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
       <c r="B16" t="s">
@@ -2702,7 +2767,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>65</v>
       </c>
       <c r="B17" t="s">
@@ -2798,7 +2863,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>61</v>
       </c>
       <c r="B18" t="s">
@@ -2887,7 +2952,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
       <c r="B19" t="s">
@@ -2982,7 +3047,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="A20" t="s">
         <v>67</v>
       </c>
       <c r="B20" t="s">
@@ -3078,7 +3143,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" t="s">
         <v>69</v>
       </c>
       <c r="B21" t="s">
@@ -3167,7 +3232,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
       <c r="B22" t="s">
@@ -3262,7 +3327,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>71</v>
       </c>
       <c r="B23" t="s">
@@ -3348,7 +3413,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" t="s">
         <v>73</v>
       </c>
       <c r="B24" t="s">
@@ -3443,7 +3508,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="A25" t="s">
         <v>73</v>
       </c>
       <c r="B25" t="s">
@@ -3538,7 +3603,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B26" t="s">
@@ -3633,7 +3698,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="A27" t="s">
         <v>75</v>
       </c>
       <c r="B27" t="s">
@@ -3728,7 +3793,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" t="s">
         <v>75</v>
       </c>
       <c r="B28" t="s">
@@ -3823,7 +3888,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
       <c r="B29" t="s">
@@ -3909,7 +3974,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
@@ -4004,7 +4069,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31" t="s">
@@ -4099,7 +4164,7 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="A32" t="s">
         <v>73</v>
       </c>
       <c r="B32" t="s">
@@ -4194,7 +4259,7 @@
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="A33" t="s">
         <v>77</v>
       </c>
       <c r="B33" t="s">
@@ -4289,7 +4354,7 @@
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+      <c r="A34" t="s">
         <v>77</v>
       </c>
       <c r="B34" t="s">
@@ -4384,7 +4449,7 @@
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35" t="s">
@@ -4479,7 +4544,7 @@
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+      <c r="A36" t="s">
         <v>79</v>
       </c>
       <c r="B36" t="s">
@@ -4574,7 +4639,7 @@
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="A37" t="s">
         <v>79</v>
       </c>
       <c r="B37" t="s">
@@ -4669,7 +4734,7 @@
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+      <c r="A38" t="s">
         <v>75</v>
       </c>
       <c r="B38" t="s">
@@ -4764,7 +4829,7 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
       <c r="B39" t="s">
@@ -4859,7 +4924,7 @@
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
@@ -4954,7 +5019,7 @@
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
+      <c r="A41" t="s">
         <v>81</v>
       </c>
       <c r="B41" t="s">
@@ -5044,7 +5109,7 @@
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+      <c r="A42" t="s">
         <v>63</v>
       </c>
       <c r="B42" t="s">
@@ -5139,7 +5204,7 @@
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+      <c r="A43" t="s">
         <v>63</v>
       </c>
       <c r="B43" t="s">
@@ -5234,7 +5299,7 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+      <c r="A44" t="s">
         <v>77</v>
       </c>
       <c r="B44" t="s">
@@ -5329,7 +5394,7 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+      <c r="A45" t="s">
         <v>83</v>
       </c>
       <c r="B45" t="s">
@@ -5424,7 +5489,7 @@
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
+      <c r="A46" t="s">
         <v>85</v>
       </c>
       <c r="B46" t="s">
@@ -5519,7 +5584,7 @@
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+      <c r="A47" t="s">
         <v>85</v>
       </c>
       <c r="B47" t="s">
@@ -5614,7 +5679,7 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
+      <c r="A48" t="s">
         <v>79</v>
       </c>
       <c r="B48" t="s">
@@ -5709,7 +5774,7 @@
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+      <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
@@ -5804,7 +5869,7 @@
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
       <c r="B50" t="s">
@@ -5899,7 +5964,7 @@
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+      <c r="A51" t="s">
         <v>87</v>
       </c>
       <c r="B51" t="s">
@@ -5994,7 +6059,7 @@
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
+      <c r="A52" t="s">
         <v>87</v>
       </c>
       <c r="B52" t="s">
@@ -6089,7 +6154,7 @@
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
+      <c r="A53" t="s">
         <v>87</v>
       </c>
       <c r="B53" t="s">
@@ -6184,7 +6249,7 @@
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
+      <c r="A54" t="s">
         <v>89</v>
       </c>
       <c r="B54" t="s">
@@ -6279,7 +6344,7 @@
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
+      <c r="A55" t="s">
         <v>90</v>
       </c>
       <c r="B55" t="s">
@@ -6374,7 +6439,7 @@
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B56" t="s">
@@ -6469,7 +6534,7 @@
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
+      <c r="A57" t="s">
         <v>90</v>
       </c>
       <c r="B57" t="s">
@@ -6564,7 +6629,7 @@
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+      <c r="A58" t="s">
         <v>85</v>
       </c>
       <c r="B58" t="s">
@@ -6620,7 +6685,7 @@
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
+      <c r="A59" t="s">
         <v>94</v>
       </c>
       <c r="B59" t="s">
@@ -6715,7 +6780,7 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A60" s="12" t="s">
+      <c r="A60" t="s">
         <v>94</v>
       </c>
       <c r="B60" t="s">
@@ -6804,7 +6869,7 @@
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
+      <c r="A61" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
@@ -6899,7 +6964,7 @@
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62" t="s">
@@ -6994,7 +7059,7 @@
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A63" s="12" t="s">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
       <c r="B63" t="s">
@@ -7086,7 +7151,7 @@
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A64" s="12" t="s">
+      <c r="A64" t="s">
         <v>94</v>
       </c>
       <c r="B64" t="s">
@@ -7181,7 +7246,7 @@
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="s">
+      <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
@@ -7276,7 +7341,7 @@
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
+      <c r="A66" t="s">
         <v>71</v>
       </c>
       <c r="B66" t="s">
@@ -7371,7 +7436,7 @@
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
+      <c r="A67" t="s">
         <v>85</v>
       </c>
       <c r="B67" t="s">
@@ -7439,7 +7504,7 @@
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A68" s="12" t="s">
+      <c r="A68" t="s">
         <v>36</v>
       </c>
       <c r="B68" t="s">
@@ -7534,7 +7599,7 @@
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A69" s="12" t="s">
+      <c r="A69" t="s">
         <v>92</v>
       </c>
       <c r="B69" t="s">
@@ -7630,7 +7695,7 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
+      <c r="A70" t="s">
         <v>83</v>
       </c>
       <c r="B70" t="s">
@@ -7725,7 +7790,7 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A71" s="12" t="s">
+      <c r="A71" t="s">
         <v>83</v>
       </c>
       <c r="B71" t="s">
@@ -7820,7 +7885,7 @@
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A72" s="12" t="s">
+      <c r="A72" t="s">
         <v>57</v>
       </c>
       <c r="B72" t="s">
@@ -7915,7 +7980,7 @@
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A73" s="12" t="s">
+      <c r="A73" t="s">
         <v>89</v>
       </c>
       <c r="B73" t="s">
@@ -8010,7 +8075,7 @@
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A74" s="12" t="s">
+      <c r="A74" t="s">
         <v>89</v>
       </c>
       <c r="B74" t="s">
@@ -8112,10 +8177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4506E-7787-40B5-B507-F98025B636B3}">
-  <dimension ref="A1:CU29"/>
+  <dimension ref="A1:CR29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BF14" sqref="BF14"/>
+    <sheetView topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="CM9" sqref="CM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8123,12 +8188,12 @@
     <col min="7" max="7" width="19.81640625" customWidth="1"/>
     <col min="12" max="12" width="9.453125" customWidth="1"/>
     <col min="16" max="16" width="9.453125" customWidth="1"/>
-    <col min="38" max="38" width="9.453125" customWidth="1"/>
-    <col min="55" max="55" width="9.453125" customWidth="1"/>
-    <col min="72" max="72" width="9.453125" customWidth="1"/>
+    <col min="40" max="40" width="9.453125" customWidth="1"/>
+    <col min="59" max="59" width="9.453125" customWidth="1"/>
+    <col min="78" max="78" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>236</v>
       </c>
@@ -8187,143 +8252,167 @@
         <v>102</v>
       </c>
       <c r="AE1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF1" t="s">
         <v>103</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>105</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>106</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK1" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>96</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>97</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>98</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>99</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>100</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY1" t="s">
         <v>103</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>105</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>106</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BD1" t="s">
         <v>1</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>0</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>96</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" t="s">
         <v>97</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>98</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
         <v>99</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
         <v>100</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>101</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" t="s">
         <v>102</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BR1" t="s">
         <v>103</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BS1" t="s">
         <v>104</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BT1" t="s">
         <v>105</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BU1" t="s">
         <v>106</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BV1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BW1" t="s">
         <v>1</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BX1" t="s">
         <v>0</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CA1" t="s">
         <v>96</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CD1" t="s">
         <v>97</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CE1" t="s">
         <v>98</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CF1" t="s">
         <v>99</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CG1" t="s">
         <v>100</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CH1" t="s">
         <v>101</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CI1" t="s">
         <v>102</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CJ1" t="s">
+        <v>247</v>
+      </c>
+      <c r="CK1" t="s">
         <v>103</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CL1" t="s">
         <v>104</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CM1" t="s">
         <v>105</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CN1" t="s">
         <v>106</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CO1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CP1" t="s">
         <v>1</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CQ1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -8414,3868 +8503,4162 @@
         <v>130</v>
       </c>
       <c r="AE2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AW2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AY2" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="BC2" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BE2" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BF2" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="BC2" s="10" t="s">
+      <c r="BG2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="BD2" s="10" t="s">
+      <c r="BH2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="BE2" s="10" t="s">
+      <c r="BI2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="BF2" s="10" t="s">
+      <c r="BJ2" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="BG2" s="10" t="s">
+      <c r="BK2" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="BH2" s="10" t="s">
+      <c r="BL2" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="BI2" s="10" t="s">
+      <c r="BM2" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="BJ2" s="10" t="s">
+      <c r="BN2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="BK2" s="10" t="s">
+      <c r="BO2" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="BL2" s="10" t="s">
+      <c r="BP2" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="BM2" s="10" t="s">
+      <c r="BQ2" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="BR2" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="BN2" s="10" t="s">
+      <c r="BS2" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="BO2" s="10" t="s">
+      <c r="BT2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="BP2" s="10" t="s">
+      <c r="BU2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="BQ2" s="10" t="s">
+      <c r="BV2" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="BW2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="BR2" s="10" t="s">
+      <c r="BX2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="BS2" s="10" t="s">
+      <c r="BY2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="BT2" s="11" t="s">
+      <c r="BZ2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="BU2" s="11" t="s">
+      <c r="CA2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="BV2" s="11" t="s">
+      <c r="CB2" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="BW2" s="11" t="s">
+      <c r="CC2" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="BX2" s="11" t="s">
+      <c r="CD2" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="BY2" s="11" t="s">
+      <c r="CE2" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="BZ2" s="11" t="s">
+      <c r="CF2" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="CA2" s="11" t="s">
+      <c r="CG2" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="CB2" s="11" t="s">
+      <c r="CH2" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="CC2" s="11" t="s">
+      <c r="CI2" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="CD2" s="11" t="s">
+      <c r="CJ2" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="CK2" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="CE2" s="11" t="s">
+      <c r="CL2" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="CF2" s="11" t="s">
+      <c r="CM2" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="CG2" s="11" t="s">
+      <c r="CN2" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="CH2" s="11" t="s">
+      <c r="CO2" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="CP2" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="CI2" s="11" t="s">
+      <c r="CQ2" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="CJ2" s="11" t="s">
+      <c r="CR2" s="11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L3" s="3">
+        <v>45304</v>
+      </c>
+      <c r="M3">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="P3" s="3">
+        <v>45307</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>14</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>49</v>
+      </c>
+      <c r="J4">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L4" s="3">
+        <v>45305</v>
+      </c>
+      <c r="M4">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="P4" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>32</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45300</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="L6" s="3">
+        <v>45304</v>
+      </c>
+      <c r="M6">
+        <v>31</v>
+      </c>
+      <c r="N6">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3">
+        <v>45307</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>35</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45296</v>
+      </c>
+      <c r="L7" s="3">
+        <v>45306</v>
+      </c>
+      <c r="M7">
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <v>14</v>
+      </c>
+      <c r="O7">
+        <v>3.5</v>
+      </c>
+      <c r="P7" s="3">
+        <v>45309</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>34</v>
+      </c>
+      <c r="S7">
+        <v>25</v>
+      </c>
+      <c r="T7">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L8" s="3">
+        <v>45305</v>
+      </c>
+      <c r="M8">
+        <v>22</v>
+      </c>
+      <c r="N8">
+        <v>21</v>
+      </c>
+      <c r="O8">
+        <v>3.5</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45297</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>4.5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>45303</v>
+      </c>
+      <c r="M9">
         <v>41</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="N9">
+        <v>14</v>
+      </c>
+      <c r="O9">
+        <v>4.5</v>
+      </c>
+      <c r="P9" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>31</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45299</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>27</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>45302</v>
+      </c>
+      <c r="M10">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <v>17</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>27</v>
+      </c>
+      <c r="S10">
+        <v>12</v>
+      </c>
+      <c r="T10">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <v>37</v>
+      </c>
+      <c r="K11">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L11" s="3">
+        <v>45302</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>24</v>
+      </c>
+      <c r="S11">
+        <v>25</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11" s="3">
+        <v>45298</v>
+      </c>
+      <c r="V11" t="s">
+        <v>190</v>
+      </c>
+      <c r="W11">
+        <v>-7</v>
+      </c>
+      <c r="X11">
+        <v>-7</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1.5</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>30</v>
+      </c>
+      <c r="AL11">
+        <v>30</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>45300</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP11">
+        <v>-37</v>
+      </c>
+      <c r="AQ11">
+        <v>-12</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT11">
+        <v>4</v>
+      </c>
+      <c r="AU11">
+        <v>4</v>
+      </c>
+      <c r="AV11">
+        <v>4.25</v>
+      </c>
+      <c r="AW11">
+        <v>2</v>
+      </c>
+      <c r="AX11">
+        <v>3.4375</v>
+      </c>
+      <c r="AY11">
+        <v>2</v>
+      </c>
+      <c r="AZ11">
+        <v>0.8</v>
+      </c>
+      <c r="BA11">
+        <v>0.25</v>
+      </c>
+      <c r="BB11">
+        <v>0.25</v>
+      </c>
+      <c r="BC11">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BE11">
+        <v>25</v>
+      </c>
+      <c r="BG11" s="3">
+        <v>45305</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>194</v>
+      </c>
+      <c r="BI11">
+        <v>-16</v>
+      </c>
+      <c r="BJ11">
+        <v>-19</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>6</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>1.5</v>
+      </c>
+      <c r="BR11">
+        <v>1</v>
+      </c>
+      <c r="BS11">
+        <v>0.6</v>
+      </c>
+      <c r="BT11">
+        <v>0.75</v>
+      </c>
+      <c r="BU11">
+        <v>0.5</v>
+      </c>
+      <c r="BV11">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="BW11">
+        <v>21</v>
+      </c>
+      <c r="BX11">
+        <v>18</v>
+      </c>
+      <c r="BZ11" s="3">
+        <v>45307</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB11">
+        <v>-17</v>
+      </c>
+      <c r="CC11">
+        <v>-17</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>189</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF11">
+        <v>2</v>
+      </c>
+      <c r="CG11">
+        <v>2</v>
+      </c>
+      <c r="CH11">
+        <v>4</v>
+      </c>
+      <c r="CI11">
+        <v>2</v>
+      </c>
+      <c r="CJ11">
+        <v>2.5</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>20</v>
+      </c>
+      <c r="CQ11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L12" s="3">
+        <v>45305</v>
+      </c>
+      <c r="M12">
+        <v>39</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="P12" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>39</v>
+      </c>
+      <c r="S12">
+        <v>17</v>
+      </c>
+      <c r="T12">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="U12" s="3">
+        <v>45300</v>
+      </c>
+      <c r="V12" t="s">
+        <v>195</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>-6</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AB12">
+        <v>3.4</v>
+      </c>
+      <c r="AC12">
+        <v>5.5</v>
+      </c>
+      <c r="AD12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AE12">
+        <v>4.4375</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH12">
+        <v>-1.25</v>
+      </c>
+      <c r="AI12">
+        <v>-0.25</v>
+      </c>
+      <c r="AJ12">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AK12">
+        <v>11</v>
+      </c>
+      <c r="AL12">
+        <v>28</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>45304</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP12">
+        <v>-1</v>
+      </c>
+      <c r="AQ12">
+        <v>-7</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT12">
+        <v>5</v>
+      </c>
+      <c r="AU12">
+        <v>3.6</v>
+      </c>
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
+        <v>5.4</v>
+      </c>
+      <c r="AX12">
+        <v>4.9375</v>
+      </c>
+      <c r="AY12">
+        <v>2</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>-0.5</v>
+      </c>
+      <c r="BC12">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="BD12">
+        <v>10</v>
+      </c>
+      <c r="BE12">
+        <v>27</v>
+      </c>
+      <c r="BG12" s="3">
+        <v>45307</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI12">
+        <v>2</v>
+      </c>
+      <c r="BJ12">
+        <v>5</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>200</v>
+      </c>
+      <c r="BM12">
+        <v>5.5</v>
+      </c>
+      <c r="BN12">
+        <v>4.2</v>
+      </c>
+      <c r="BO12">
+        <v>5.5</v>
+      </c>
+      <c r="BP12">
+        <v>5</v>
+      </c>
+      <c r="BQ12">
+        <v>4.9375</v>
+      </c>
+      <c r="BR12">
+        <v>3</v>
+      </c>
+      <c r="BS12">
+        <v>1.2</v>
+      </c>
+      <c r="BT12">
+        <v>0.25</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BW12">
+        <v>13</v>
+      </c>
+      <c r="BX12">
+        <v>39</v>
+      </c>
+      <c r="BZ12" s="3">
+        <v>45308</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB12">
+        <v>1</v>
+      </c>
+      <c r="CC12">
+        <v>6</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>201</v>
+      </c>
+      <c r="CF12">
+        <v>5.5</v>
+      </c>
+      <c r="CG12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="CH12">
+        <v>6</v>
+      </c>
+      <c r="CI12">
+        <v>5</v>
+      </c>
+      <c r="CJ12">
+        <v>5.125</v>
+      </c>
+      <c r="CK12">
+        <v>2</v>
+      </c>
+      <c r="CL12">
+        <v>1.6</v>
+      </c>
+      <c r="CM12">
+        <v>-0.75</v>
+      </c>
+      <c r="CN12">
+        <v>0.5</v>
+      </c>
+      <c r="CO12">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="CP12">
+        <v>12</v>
+      </c>
+      <c r="CQ12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45303</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
         <v>28</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>24</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BZ13" s="3"/>
+    </row>
+    <row r="14" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>34</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BZ14" s="3"/>
+    </row>
+    <row r="15" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G15" s="3">
+        <v>45297</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>3.5</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BZ15" s="3"/>
+    </row>
+    <row r="16" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3">
         <v>45296</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H16">
         <v>8</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I16">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BZ16" s="3"/>
+    </row>
+    <row r="17" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>34</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L17" s="3">
+        <v>45302</v>
+      </c>
+      <c r="M17">
+        <v>21</v>
+      </c>
+      <c r="N17">
+        <v>16</v>
+      </c>
+      <c r="O17">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="P17" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>29</v>
+      </c>
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
+        <v>45297</v>
+      </c>
+      <c r="V17" t="s">
+        <v>192</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA17">
+        <v>4</v>
+      </c>
+      <c r="AB17">
+        <v>4.2</v>
+      </c>
+      <c r="AC17">
+        <v>5.5</v>
+      </c>
+      <c r="AD17">
+        <v>2.8</v>
+      </c>
+      <c r="AE17">
+        <v>4.0625</v>
+      </c>
+      <c r="AF17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>1.2</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>-0.75</v>
+      </c>
+      <c r="AJ17">
+        <v>0.5</v>
+      </c>
+      <c r="AK17">
+        <v>14</v>
+      </c>
+      <c r="AL17">
+        <v>33</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>45300</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>-9</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT17">
+        <v>4</v>
+      </c>
+      <c r="AU17">
+        <v>4</v>
+      </c>
+      <c r="AV17">
+        <v>5.75</v>
+      </c>
+      <c r="AW17">
+        <v>3.6</v>
+      </c>
+      <c r="AX17">
+        <v>4.3125</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17">
+        <v>0.2</v>
+      </c>
+      <c r="BA17">
+        <v>-1.5</v>
+      </c>
+      <c r="BB17">
+        <v>-0.75</v>
+      </c>
+      <c r="BC17">
+        <v>-0.42857142857142855</v>
+      </c>
+      <c r="BD17">
+        <v>14</v>
+      </c>
+      <c r="BE17">
+        <v>25</v>
+      </c>
+      <c r="BG17" s="3">
+        <v>45304</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI17">
+        <v>2</v>
+      </c>
+      <c r="BJ17">
+        <v>-8</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM17">
+        <v>5</v>
+      </c>
+      <c r="BN17">
+        <v>5</v>
+      </c>
+      <c r="BO17">
+        <v>5.75</v>
+      </c>
+      <c r="BP17">
+        <v>3.6</v>
+      </c>
+      <c r="BQ17">
+        <v>4.75</v>
+      </c>
+      <c r="BR17">
+        <v>1</v>
+      </c>
+      <c r="BS17">
+        <v>1.8</v>
+      </c>
+      <c r="BT17">
+        <v>-0.75</v>
+      </c>
+      <c r="BU17">
+        <v>-0.5</v>
+      </c>
+      <c r="BV17">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="BW17">
+        <v>15</v>
+      </c>
+      <c r="BX17">
+        <v>26</v>
+      </c>
+      <c r="BZ17" s="3">
+        <v>45307</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB17">
+        <v>2</v>
+      </c>
+      <c r="CC17">
+        <v>-3</v>
+      </c>
+      <c r="CF17">
+        <v>5</v>
+      </c>
+      <c r="CG17">
+        <v>4.8</v>
+      </c>
+      <c r="CH17">
+        <v>5.75</v>
+      </c>
+      <c r="CI17">
+        <v>4.2</v>
+      </c>
+      <c r="CJ17">
+        <v>4.875</v>
+      </c>
+      <c r="CK17">
+        <v>1</v>
+      </c>
+      <c r="CL17">
+        <v>1.6</v>
+      </c>
+      <c r="CM17">
+        <v>-0.25</v>
+      </c>
+      <c r="CN17">
+        <v>-0.75</v>
+      </c>
+      <c r="CO17">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="CP17">
+        <v>15</v>
+      </c>
+      <c r="CQ17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45299</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>37</v>
+      </c>
+      <c r="J18">
+        <v>24</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
+        <v>45305</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
+        <v>45309</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>30</v>
+      </c>
+      <c r="S18">
         <v>18</v>
       </c>
-      <c r="J3" s="12">
+      <c r="T18">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="U18" s="3">
+        <v>45300</v>
+      </c>
+      <c r="V18" t="s">
+        <v>192</v>
+      </c>
+      <c r="W18">
+        <v>-7</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA18">
+        <v>4.5</v>
+      </c>
+      <c r="AB18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC18">
+        <v>4.75</v>
+      </c>
+      <c r="AD18">
+        <v>3.8</v>
+      </c>
+      <c r="AE18">
+        <v>4.375</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1.6</v>
+      </c>
+      <c r="AH18">
+        <v>-1.25</v>
+      </c>
+      <c r="AI18">
+        <v>0.25</v>
+      </c>
+      <c r="AJ18">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AK18">
+        <v>17</v>
+      </c>
+      <c r="AL18">
+        <v>41</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>45305</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP18">
+        <v>-7</v>
+      </c>
+      <c r="AQ18">
+        <v>-6</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT18">
+        <v>4.5</v>
+      </c>
+      <c r="AU18">
+        <v>3.6</v>
+      </c>
+      <c r="AV18">
+        <v>4.25</v>
+      </c>
+      <c r="AW18">
+        <v>4.2</v>
+      </c>
+      <c r="AX18">
+        <v>4.0625</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18">
+        <v>0.8</v>
+      </c>
+      <c r="BA18">
+        <v>-1.5</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="BD18">
+        <v>17</v>
+      </c>
+      <c r="BE18">
+        <v>31</v>
+      </c>
+      <c r="BG18" s="3">
+        <v>45307</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI18">
+        <v>-1</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM18">
+        <v>4.5</v>
+      </c>
+      <c r="BN18">
+        <v>3.4</v>
+      </c>
+      <c r="BO18">
+        <v>4</v>
+      </c>
+      <c r="BP18">
+        <v>4</v>
+      </c>
+      <c r="BQ18">
+        <v>3.875</v>
+      </c>
+      <c r="BR18">
+        <v>3</v>
+      </c>
+      <c r="BS18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT18">
+        <v>0.25</v>
+      </c>
+      <c r="BU18">
+        <v>1</v>
+      </c>
+      <c r="BV18">
+        <v>1.5</v>
+      </c>
+      <c r="BW18">
+        <v>23</v>
+      </c>
+      <c r="BX18">
+        <v>37</v>
+      </c>
+      <c r="BZ18" s="3"/>
+    </row>
+    <row r="19" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>31</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19" s="3">
+        <v>45302</v>
+      </c>
+      <c r="M19">
+        <v>38</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>43</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="U19" s="3">
+        <v>45298</v>
+      </c>
+      <c r="V19" t="s">
+        <v>202</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>-4</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA19">
+        <v>4</v>
+      </c>
+      <c r="AB19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC19">
+        <v>3.75</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>2.4375</v>
+      </c>
+      <c r="AF19">
+        <v>-1</v>
+      </c>
+      <c r="AG19">
+        <v>-0.4</v>
+      </c>
+      <c r="AH19">
+        <v>-1</v>
+      </c>
+      <c r="AI19">
+        <v>-0.75</v>
+      </c>
+      <c r="AJ19">
+        <v>-0.7142857142857143</v>
+      </c>
+      <c r="AK19">
+        <v>16</v>
+      </c>
+      <c r="AL19">
+        <v>27</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>45300</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP19">
+        <v>-2</v>
+      </c>
+      <c r="AQ19">
+        <v>2</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT19">
+        <v>4</v>
+      </c>
+      <c r="AU19">
+        <v>4.2</v>
+      </c>
+      <c r="AV19">
+        <v>5</v>
+      </c>
+      <c r="AW19">
+        <v>3.6</v>
+      </c>
+      <c r="AX19">
+        <v>4.1875</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="AZ19">
+        <v>0.4</v>
+      </c>
+      <c r="BA19">
+        <v>0.25</v>
+      </c>
+      <c r="BB19">
+        <v>0.25</v>
+      </c>
+      <c r="BC19">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="BD19">
+        <v>13</v>
+      </c>
+      <c r="BE19">
+        <v>33</v>
+      </c>
+      <c r="BG19" s="3">
+        <v>45305</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI19">
+        <v>-5</v>
+      </c>
+      <c r="BJ19">
+        <v>9</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>210</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM19">
+        <v>3.5</v>
+      </c>
+      <c r="BN19">
+        <v>2.6</v>
+      </c>
+      <c r="BO19">
+        <v>4.5</v>
+      </c>
+      <c r="BP19">
+        <v>1</v>
+      </c>
+      <c r="BQ19">
+        <v>2.6875</v>
+      </c>
+      <c r="BR19">
+        <v>-2</v>
+      </c>
+      <c r="BS19">
+        <v>-1.2</v>
+      </c>
+      <c r="BT19">
+        <v>-0.75</v>
+      </c>
+      <c r="BU19">
+        <v>-1</v>
+      </c>
+      <c r="BV19">
+        <v>-1.0714285714285714</v>
+      </c>
+      <c r="BW19">
+        <v>10</v>
+      </c>
+      <c r="BX19">
+        <v>40</v>
+      </c>
+      <c r="BZ19" s="3">
+        <v>45307</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB19">
+        <v>-5</v>
+      </c>
+      <c r="CC19">
+        <v>10</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>212</v>
+      </c>
+      <c r="CJ19">
+        <v>4.0625</v>
+      </c>
+      <c r="CP19">
+        <v>10</v>
+      </c>
+      <c r="CQ19">
+        <v>41</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <v>13</v>
+      </c>
+      <c r="K20">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="L20" s="3">
+        <v>45302</v>
+      </c>
+      <c r="M20">
+        <v>21</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="P20" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>18</v>
+      </c>
+      <c r="S20">
+        <v>12</v>
+      </c>
+      <c r="T20">
+        <v>4.5</v>
+      </c>
+      <c r="U20" s="3">
+        <v>45297</v>
+      </c>
+      <c r="V20" t="s">
+        <v>192</v>
+      </c>
+      <c r="W20">
+        <v>-3</v>
+      </c>
+      <c r="X20">
+        <v>-3</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA20">
+        <v>5</v>
+      </c>
+      <c r="AB20">
+        <v>4.8</v>
+      </c>
+      <c r="AC20">
+        <v>4.25</v>
+      </c>
+      <c r="AD20">
+        <v>2.6</v>
+      </c>
+      <c r="AE20">
+        <v>4</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1.2</v>
+      </c>
+      <c r="AH20">
+        <v>-2</v>
+      </c>
+      <c r="AI20">
+        <v>-1</v>
+      </c>
+      <c r="AJ20">
+        <v>-0.5</v>
+      </c>
+      <c r="AK20">
+        <v>10</v>
+      </c>
+      <c r="AL20">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>45300</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP20">
+        <v>-2</v>
+      </c>
+      <c r="AQ20">
+        <v>-14</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT20">
+        <v>6</v>
+      </c>
+      <c r="AU20">
+        <v>4.2</v>
+      </c>
+      <c r="AV20">
+        <v>5</v>
+      </c>
+      <c r="AW20">
+        <v>2</v>
+      </c>
+      <c r="AX20">
+        <v>3.9375</v>
+      </c>
+      <c r="AY20">
+        <v>-2</v>
+      </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>-1.75</v>
+      </c>
+      <c r="BB20">
+        <v>-2.75</v>
+      </c>
+      <c r="BC20">
+        <v>-1.0714285714285714</v>
+      </c>
+      <c r="BD20">
+        <v>11</v>
+      </c>
+      <c r="BE20">
+        <v>21</v>
+      </c>
+      <c r="BG20" s="3">
+        <v>45305</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI20">
+        <v>-1</v>
+      </c>
+      <c r="BJ20">
+        <v>-14</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM20">
+        <v>6</v>
+      </c>
+      <c r="BN20">
+        <v>2.6</v>
+      </c>
+      <c r="BO20">
+        <v>5.75</v>
+      </c>
+      <c r="BP20">
+        <v>2.6</v>
+      </c>
+      <c r="BQ20">
+        <v>3.8125</v>
+      </c>
+      <c r="BR20">
+        <v>1</v>
+      </c>
+      <c r="BS20">
+        <v>1.2</v>
+      </c>
+      <c r="BT20">
+        <v>-2</v>
+      </c>
+      <c r="BU20">
+        <v>-0.25</v>
+      </c>
+      <c r="BV20">
+        <v>-7.1428571428571425E-2</v>
+      </c>
+      <c r="BW20">
+        <v>12</v>
+      </c>
+      <c r="BX20">
+        <v>21</v>
+      </c>
+      <c r="BZ20" s="3">
+        <v>45307</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB20">
+        <v>-2</v>
+      </c>
+      <c r="CC20">
+        <v>-18</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF20">
+        <v>6</v>
+      </c>
+      <c r="CG20">
+        <v>3.6</v>
+      </c>
+      <c r="CH20">
+        <v>6</v>
+      </c>
+      <c r="CI20">
+        <v>4</v>
+      </c>
+      <c r="CJ20">
+        <v>4.625</v>
+      </c>
+      <c r="CK20">
+        <v>1</v>
+      </c>
+      <c r="CL20">
+        <v>1.8</v>
+      </c>
+      <c r="CM20">
+        <v>-2</v>
+      </c>
+      <c r="CN20">
+        <v>0.5</v>
+      </c>
+      <c r="CO20">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CP20">
+        <v>11</v>
+      </c>
+      <c r="CQ20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45297</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="L21" s="3">
+        <v>45303</v>
+      </c>
+      <c r="M21">
+        <v>39</v>
+      </c>
+      <c r="N21">
+        <v>13</v>
+      </c>
+      <c r="O21">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="P21" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>28</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="U21" s="3">
+        <v>45299</v>
+      </c>
+      <c r="V21" t="s">
+        <v>192</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>-5</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA21">
+        <v>4.5</v>
+      </c>
+      <c r="AB21">
+        <v>4.2</v>
+      </c>
+      <c r="AC21">
+        <v>6</v>
+      </c>
+      <c r="AD21">
+        <v>5</v>
+      </c>
+      <c r="AE21">
+        <v>4.9375</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1.8</v>
+      </c>
+      <c r="AH21">
+        <v>0.25</v>
+      </c>
+      <c r="AI21">
+        <v>-0.25</v>
+      </c>
+      <c r="AJ21">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AK21">
+        <v>12</v>
+      </c>
+      <c r="AL21">
+        <v>34</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>45301</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP21">
+        <v>-1</v>
+      </c>
+      <c r="AQ21">
+        <v>-3</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT21">
+        <v>4</v>
+      </c>
+      <c r="AU21">
+        <v>2.8</v>
+      </c>
+      <c r="AV21">
+        <v>5.75</v>
+      </c>
+      <c r="AW21">
+        <v>3.2</v>
+      </c>
+      <c r="AX21">
+        <v>3.8125</v>
+      </c>
+      <c r="AY21">
+        <v>1</v>
+      </c>
+      <c r="AZ21">
+        <v>1.6</v>
+      </c>
+      <c r="BA21">
+        <v>-0.25</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0.5</v>
+      </c>
+      <c r="BD21">
+        <v>10</v>
+      </c>
+      <c r="BE21">
+        <v>36</v>
+      </c>
+      <c r="BG21" s="3"/>
+      <c r="BZ21" s="3"/>
+    </row>
+    <row r="22" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45297</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>15</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>45303</v>
+      </c>
+      <c r="M22">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="P22" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <v>15</v>
+      </c>
+      <c r="T22">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="U22" s="3">
+        <v>45298</v>
+      </c>
+      <c r="V22" t="s">
+        <v>204</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>4.2</v>
+      </c>
+      <c r="AC22">
+        <v>5.25</v>
+      </c>
+      <c r="AD22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AE22">
+        <v>4.625</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1.4</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0.25</v>
+      </c>
+      <c r="AJ22">
+        <v>0.5</v>
+      </c>
+      <c r="AK22">
+        <v>15</v>
+      </c>
+      <c r="AL22">
+        <v>33</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>45302</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP22">
+        <v>8</v>
+      </c>
+      <c r="AQ22">
+        <v>-3</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT22">
+        <v>5</v>
+      </c>
+      <c r="AU22">
+        <v>4.8</v>
+      </c>
+      <c r="AV22">
+        <v>5</v>
+      </c>
+      <c r="AW22">
+        <v>5.2</v>
+      </c>
+      <c r="AX22">
+        <v>5</v>
+      </c>
+      <c r="AY22">
+        <v>2</v>
+      </c>
+      <c r="AZ22">
+        <v>0.6</v>
+      </c>
+      <c r="BA22">
+        <v>0.25</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0.5</v>
+      </c>
+      <c r="BD22">
+        <v>23</v>
+      </c>
+      <c r="BE22">
+        <v>27</v>
+      </c>
+      <c r="BG22" s="3">
+        <v>45306</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI22">
+        <v>-3</v>
+      </c>
+      <c r="BJ22">
+        <v>-1</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM22">
+        <v>4</v>
+      </c>
+      <c r="BN22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BO22">
+        <v>5</v>
+      </c>
+      <c r="BP22">
+        <v>4</v>
+      </c>
+      <c r="BQ22">
+        <v>4.4375</v>
+      </c>
+      <c r="BR22">
+        <v>1</v>
+      </c>
+      <c r="BS22">
+        <v>1</v>
+      </c>
+      <c r="BT22">
+        <v>0.5</v>
+      </c>
+      <c r="BU22">
+        <v>0.5</v>
+      </c>
+      <c r="BV22">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BW22">
+        <v>12</v>
+      </c>
+      <c r="BX22">
+        <v>29</v>
+      </c>
+      <c r="BZ22" s="3">
+        <v>45307</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>202</v>
+      </c>
+      <c r="CB22">
+        <v>-5</v>
+      </c>
+      <c r="CC22">
+        <v>-3</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>189</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>219</v>
+      </c>
+      <c r="CF22">
+        <v>5</v>
+      </c>
+      <c r="CG22">
+        <v>5</v>
+      </c>
+      <c r="CH22">
+        <v>5</v>
+      </c>
+      <c r="CI22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="CJ22">
+        <v>4.8125</v>
+      </c>
+      <c r="CK22">
+        <v>1</v>
+      </c>
+      <c r="CL22">
+        <v>1</v>
+      </c>
+      <c r="CM22">
+        <v>0</v>
+      </c>
+      <c r="CN22">
+        <v>0.25</v>
+      </c>
+      <c r="CO22">
+        <v>0.5</v>
+      </c>
+      <c r="CP22">
+        <v>10</v>
+      </c>
+      <c r="CQ22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>31</v>
+      </c>
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
+        <v>45304</v>
+      </c>
+      <c r="M23">
+        <v>35</v>
+      </c>
+      <c r="N23">
+        <v>18</v>
+      </c>
+      <c r="O23">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="P23" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>40</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
+        <v>45299</v>
+      </c>
+      <c r="V23" t="s">
+        <v>192</v>
+      </c>
+      <c r="W23">
+        <v>-5</v>
+      </c>
+      <c r="X23">
+        <v>-6</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA23">
+        <v>5</v>
+      </c>
+      <c r="AB23">
+        <v>4.2</v>
+      </c>
+      <c r="AC23">
+        <v>4.5</v>
+      </c>
+      <c r="AD23">
+        <v>3.8</v>
+      </c>
+      <c r="AE23">
+        <v>4.25</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>-0.6</v>
+      </c>
+      <c r="AH23">
+        <v>-0.5</v>
+      </c>
+      <c r="AI23">
+        <v>-1.75</v>
+      </c>
+      <c r="AJ23">
+        <v>-0.7857142857142857</v>
+      </c>
+      <c r="AK23">
         <v>14</v>
       </c>
-      <c r="K3" s="12">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="AL23">
+        <v>25</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>45303</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP23">
+        <v>-2</v>
+      </c>
+      <c r="AQ23">
+        <v>5</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT23">
+        <v>4.5</v>
+      </c>
+      <c r="AU23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AV23">
+        <v>4.5</v>
+      </c>
+      <c r="AW23">
+        <v>3.4</v>
+      </c>
+      <c r="AX23">
+        <v>4.125</v>
+      </c>
+      <c r="AY23">
+        <v>2</v>
+      </c>
+      <c r="AZ23">
+        <v>1.2</v>
+      </c>
+      <c r="BA23">
+        <v>-1.5</v>
+      </c>
+      <c r="BB23">
+        <v>0.75</v>
+      </c>
+      <c r="BC23">
+        <v>0.5</v>
+      </c>
+      <c r="BD23">
+        <v>17</v>
+      </c>
+      <c r="BE23">
+        <v>36</v>
+      </c>
+      <c r="BG23" s="3">
+        <v>45306</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI23">
+        <v>-4</v>
+      </c>
+      <c r="BJ23">
+        <v>8</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM23">
+        <v>5</v>
+      </c>
+      <c r="BN23">
+        <v>4</v>
+      </c>
+      <c r="BO23">
+        <v>4.75</v>
+      </c>
+      <c r="BP23">
+        <v>3.8</v>
+      </c>
+      <c r="BQ23">
+        <v>4.25</v>
+      </c>
+      <c r="BR23">
+        <v>1</v>
+      </c>
+      <c r="BS23">
+        <v>0.6</v>
+      </c>
+      <c r="BT23">
+        <v>-1.5</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>15</v>
+      </c>
+      <c r="BX23">
+        <v>39</v>
+      </c>
+      <c r="BZ23" s="3">
+        <v>45307</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB23">
+        <v>-5</v>
+      </c>
+      <c r="CC23">
+        <v>6</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>198</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF23">
+        <v>5.5</v>
+      </c>
+      <c r="CG23">
+        <v>3.2</v>
+      </c>
+      <c r="CH23">
+        <v>4</v>
+      </c>
+      <c r="CI23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="CJ23">
+        <v>4.125</v>
+      </c>
+      <c r="CK23">
+        <v>1</v>
+      </c>
+      <c r="CL23">
+        <v>-0.2</v>
+      </c>
+      <c r="CM23">
+        <v>-1.25</v>
+      </c>
+      <c r="CN23">
+        <v>0</v>
+      </c>
+      <c r="CO23">
+        <v>-0.5</v>
+      </c>
+      <c r="CP23">
+        <v>14</v>
+      </c>
+      <c r="CQ23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>31</v>
+      </c>
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
+        <v>45303</v>
+      </c>
+      <c r="M24">
+        <v>29</v>
+      </c>
+      <c r="N24">
+        <v>20</v>
+      </c>
+      <c r="O24">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="P24" s="3">
+        <v>45309</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+      <c r="R24">
+        <v>28</v>
+      </c>
+      <c r="S24">
+        <v>27</v>
+      </c>
+      <c r="T24">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="U24" s="3">
+        <v>45298</v>
+      </c>
+      <c r="V24" t="s">
+        <v>202</v>
+      </c>
+      <c r="W24">
+        <v>-3</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA24">
+        <v>1.5</v>
+      </c>
+      <c r="AB24">
+        <v>3.4</v>
+      </c>
+      <c r="AC24">
+        <v>2.75</v>
+      </c>
+      <c r="AD24">
+        <v>0.6</v>
+      </c>
+      <c r="AE24">
+        <v>2.125</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>-0.75</v>
+      </c>
+      <c r="AI24">
+        <v>-2.5</v>
+      </c>
+      <c r="AJ24">
+        <v>-0.5714285714285714</v>
+      </c>
+      <c r="AK24">
+        <v>20</v>
+      </c>
+      <c r="AL24">
+        <v>30</v>
+      </c>
+      <c r="AN24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BZ24" s="3"/>
+    </row>
+    <row r="25" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45300</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L25" s="3">
+        <v>45305</v>
+      </c>
+      <c r="M25">
+        <v>25</v>
+      </c>
+      <c r="N25">
+        <v>19</v>
+      </c>
+      <c r="O25">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="P25" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+      <c r="R25">
+        <v>34</v>
+      </c>
+      <c r="S25">
+        <v>25</v>
+      </c>
+      <c r="T25">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="U25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BZ25" s="3"/>
+    </row>
+    <row r="26" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45296</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>36</v>
+      </c>
+      <c r="J26">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>4.5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>45305</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>12</v>
+      </c>
+      <c r="O26">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="P26" s="3">
+        <v>45309</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+      <c r="R26">
+        <v>29</v>
+      </c>
+      <c r="S26">
+        <v>16</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
+        <v>45297</v>
+      </c>
+      <c r="V26" t="s">
+        <v>192</v>
+      </c>
+      <c r="W26">
+        <v>-4</v>
+      </c>
+      <c r="X26">
+        <v>-3</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA26">
+        <v>5.5</v>
+      </c>
+      <c r="AB26">
+        <v>4.2</v>
+      </c>
+      <c r="AC26">
+        <v>5.5</v>
+      </c>
+      <c r="AD26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AE26">
+        <v>4.8125</v>
+      </c>
+      <c r="AF26">
+        <v>3</v>
+      </c>
+      <c r="AG26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH26">
+        <v>-0.5</v>
+      </c>
+      <c r="AI26">
+        <v>-1.5</v>
+      </c>
+      <c r="AJ26">
+        <v>0.5</v>
+      </c>
+      <c r="AK26">
+        <v>14</v>
+      </c>
+      <c r="AL26">
+        <v>33</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>45301</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP26">
+        <v>-7</v>
+      </c>
+      <c r="AQ26">
+        <v>-10</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT26">
+        <v>6</v>
+      </c>
+      <c r="AU26">
+        <v>5.6</v>
+      </c>
+      <c r="AV26">
+        <v>5</v>
+      </c>
+      <c r="AW26">
+        <v>3.2</v>
+      </c>
+      <c r="AX26">
+        <v>4.75</v>
+      </c>
+      <c r="AY26">
+        <v>2</v>
+      </c>
+      <c r="AZ26">
+        <v>2</v>
+      </c>
+      <c r="BA26">
+        <v>-1</v>
+      </c>
+      <c r="BB26">
+        <v>-0.75</v>
+      </c>
+      <c r="BC26">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="BD26">
+        <v>11</v>
+      </c>
+      <c r="BE26">
+        <v>26</v>
+      </c>
+      <c r="BG26" s="3">
+        <v>45305</v>
+      </c>
+      <c r="BI26">
+        <v>-5</v>
+      </c>
+      <c r="BJ26">
+        <v>-17</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>189</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM26">
+        <v>6</v>
+      </c>
+      <c r="BN26">
+        <v>6</v>
+      </c>
+      <c r="BO26">
+        <v>6</v>
+      </c>
+      <c r="BP26">
+        <v>6</v>
+      </c>
+      <c r="BQ26">
+        <v>6</v>
+      </c>
+      <c r="BR26">
+        <v>3</v>
+      </c>
+      <c r="BS26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT26">
+        <v>-0.5</v>
+      </c>
+      <c r="BU26">
+        <v>0.75</v>
+      </c>
+      <c r="BV26">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="BW26">
+        <v>13</v>
+      </c>
+      <c r="BX26">
+        <v>19</v>
+      </c>
+      <c r="BZ26" s="3">
+        <v>45306</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB26">
+        <v>-6</v>
+      </c>
+      <c r="CC26">
+        <v>-8</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>225</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>226</v>
+      </c>
+      <c r="CF26">
+        <v>5.5</v>
+      </c>
+      <c r="CG26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="CH26">
+        <v>5</v>
+      </c>
+      <c r="CI26">
+        <v>3.4</v>
+      </c>
+      <c r="CJ26">
+        <v>4.4375</v>
+      </c>
+      <c r="CK26">
+        <v>2</v>
+      </c>
+      <c r="CL26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM26">
+        <v>-1.25</v>
+      </c>
+      <c r="CN26">
+        <v>-0.25</v>
+      </c>
+      <c r="CO26">
+        <v>0.5</v>
+      </c>
+      <c r="CP26">
+        <v>12</v>
+      </c>
+      <c r="CQ26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45297</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>17</v>
+      </c>
+      <c r="K27">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L27" s="3">
+        <v>45303</v>
+      </c>
+      <c r="M27">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>13</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
+        <v>45308</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>19</v>
+      </c>
+      <c r="S27">
+        <v>19</v>
+      </c>
+      <c r="T27">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="U27" s="3">
+        <v>45298</v>
+      </c>
+      <c r="V27" t="s">
+        <v>192</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
+        <v>-2</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AB27">
+        <v>6</v>
+      </c>
+      <c r="AC27">
+        <v>6</v>
+      </c>
+      <c r="AD27">
+        <v>5.4</v>
+      </c>
+      <c r="AE27">
+        <v>5.8125</v>
+      </c>
+      <c r="AF27">
+        <v>3</v>
+      </c>
+      <c r="AG27">
+        <v>1.6</v>
+      </c>
+      <c r="AH27">
+        <v>-0.75</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AK27">
+        <v>16</v>
+      </c>
+      <c r="AL27">
+        <v>19</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>45301</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP27">
+        <v>-2</v>
+      </c>
+      <c r="AQ27">
+        <v>-3</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT27">
+        <v>4.5</v>
+      </c>
+      <c r="AU27">
+        <v>1.4</v>
+      </c>
+      <c r="AV27">
+        <v>6</v>
+      </c>
+      <c r="AW27">
+        <v>2.6</v>
+      </c>
+      <c r="AX27">
+        <v>3.3125</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>-1.5</v>
+      </c>
+      <c r="BB27">
+        <v>-2.25</v>
+      </c>
+      <c r="BC27">
+        <v>-0.9285714285714286</v>
+      </c>
+      <c r="BD27">
+        <v>15</v>
+      </c>
+      <c r="BE27">
+        <v>18</v>
+      </c>
+      <c r="BG27" s="3">
         <v>45304</v>
       </c>
-      <c r="M3" s="12">
+      <c r="BH27" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI27">
+        <v>-4</v>
+      </c>
+      <c r="BJ27">
+        <v>-4</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>231</v>
+      </c>
+      <c r="BM27">
+        <v>6</v>
+      </c>
+      <c r="BN27">
+        <v>3.4</v>
+      </c>
+      <c r="BO27">
+        <v>6</v>
+      </c>
+      <c r="BP27">
+        <v>5.8</v>
+      </c>
+      <c r="BQ27">
+        <v>5.125</v>
+      </c>
+      <c r="BR27">
+        <v>3</v>
+      </c>
+      <c r="BS27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
+        <v>0.5</v>
+      </c>
+      <c r="BV27">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="BW27">
+        <v>13</v>
+      </c>
+      <c r="BX27">
+        <v>17</v>
+      </c>
+      <c r="BZ27" s="3">
+        <v>45307</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB27">
+        <v>-4</v>
+      </c>
+      <c r="CC27">
+        <v>-1</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>189</v>
+      </c>
+      <c r="CE27" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF27">
+        <v>6</v>
+      </c>
+      <c r="CG27">
+        <v>6</v>
+      </c>
+      <c r="CH27">
+        <v>6</v>
+      </c>
+      <c r="CI27">
+        <v>6</v>
+      </c>
+      <c r="CJ27">
+        <v>6</v>
+      </c>
+      <c r="CK27">
+        <v>3</v>
+      </c>
+      <c r="CL27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM27">
+        <v>-0.5</v>
+      </c>
+      <c r="CN27">
+        <v>0.75</v>
+      </c>
+      <c r="CO27">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="CP27">
+        <v>13</v>
+      </c>
+      <c r="CQ27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45299</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="L28" s="3">
+        <v>45305</v>
+      </c>
+      <c r="M28">
+        <v>39</v>
+      </c>
+      <c r="N28">
+        <v>22</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28" s="3">
+        <v>45306</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>42</v>
+      </c>
+      <c r="S28">
+        <v>15</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28" s="3">
+        <v>45300</v>
+      </c>
+      <c r="V28" t="s">
+        <v>204</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>-3</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA28">
+        <v>6</v>
+      </c>
+      <c r="AB28">
+        <v>5.6</v>
+      </c>
+      <c r="AC28">
+        <v>4.25</v>
+      </c>
+      <c r="AD28">
+        <v>5.6</v>
+      </c>
+      <c r="AE28">
+        <v>5.3125</v>
+      </c>
+      <c r="AF28">
+        <v>3</v>
+      </c>
+      <c r="AG28">
+        <v>1.4</v>
+      </c>
+      <c r="AH28">
+        <v>-1</v>
+      </c>
+      <c r="AI28">
+        <v>-1</v>
+      </c>
+      <c r="AJ28">
+        <v>0.5</v>
+      </c>
+      <c r="AK28">
+        <v>29</v>
+      </c>
+      <c r="AL28">
+        <v>37</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>45303</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP28">
+        <v>-7</v>
+      </c>
+      <c r="AQ28">
+        <v>-1</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT28">
+        <v>5</v>
+      </c>
+      <c r="AU28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AV28">
+        <v>4.5</v>
+      </c>
+      <c r="AW28">
+        <v>6</v>
+      </c>
+      <c r="AX28">
+        <v>5.0625</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28">
+        <v>1.2</v>
+      </c>
+      <c r="BA28">
+        <v>-1.75</v>
+      </c>
+      <c r="BB28">
+        <v>-1.5</v>
+      </c>
+      <c r="BC28">
+        <v>-0.21428571428571427</v>
+      </c>
+      <c r="BD28">
+        <v>18</v>
+      </c>
+      <c r="BE28">
+        <v>39</v>
+      </c>
+      <c r="BG28" s="3">
+        <v>45306</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI28">
+        <v>-7</v>
+      </c>
+      <c r="BJ28">
+        <v>1</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>234</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>235</v>
+      </c>
+      <c r="BM28">
+        <v>3.5</v>
+      </c>
+      <c r="BN28">
+        <v>3.4</v>
+      </c>
+      <c r="BO28">
+        <v>6</v>
+      </c>
+      <c r="BP28">
+        <v>4</v>
+      </c>
+      <c r="BQ28">
+        <v>4.25</v>
+      </c>
+      <c r="BR28">
+        <v>2</v>
+      </c>
+      <c r="BS28">
+        <v>0.8</v>
+      </c>
+      <c r="BT28">
+        <v>-2.5</v>
+      </c>
+      <c r="BU28">
+        <v>-2</v>
+      </c>
+      <c r="BV28">
+        <v>-0.5714285714285714</v>
+      </c>
+      <c r="BW28">
+        <v>18</v>
+      </c>
+      <c r="BX28">
+        <v>41</v>
+      </c>
+      <c r="BZ28" s="3"/>
+    </row>
+    <row r="29" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45299</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>25</v>
+      </c>
+      <c r="J29">
+        <v>22</v>
+      </c>
+      <c r="K29">
+        <v>4.5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>45304</v>
+      </c>
+      <c r="M29">
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <v>16</v>
+      </c>
+      <c r="O29">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="P29" s="3">
+        <v>45309</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29">
         <v>24</v>
       </c>
-      <c r="N3" s="12">
-        <v>18</v>
-      </c>
-      <c r="O3" s="12">
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="P3" s="13">
-        <v>45307</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>9</v>
-      </c>
-      <c r="R3" s="12">
-        <v>14</v>
-      </c>
-      <c r="S3" s="12">
-        <v>20</v>
-      </c>
-      <c r="T3" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="13">
-        <v>45303</v>
-      </c>
-      <c r="H4" s="12">
-        <v>6</v>
-      </c>
-      <c r="I4" s="12">
-        <v>28</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="S29">
         <v>16</v>
       </c>
-      <c r="K4" s="12">
-        <v>4</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="12">
-        <v>6</v>
-      </c>
-      <c r="R4" s="12">
-        <v>24</v>
-      </c>
-      <c r="S4" s="12">
-        <v>10</v>
-      </c>
-      <c r="T4" s="12">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="U4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BT4" s="13"/>
-    </row>
-    <row r="5" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>29</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H5" s="12">
-        <v>5</v>
-      </c>
-      <c r="I5" s="12">
-        <v>49</v>
-      </c>
-      <c r="J5" s="12">
-        <v>34</v>
-      </c>
-      <c r="K5" s="12">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L5" s="13">
-        <v>45305</v>
-      </c>
-      <c r="M5" s="12">
-        <v>19</v>
-      </c>
-      <c r="N5" s="12">
-        <v>13</v>
-      </c>
-      <c r="O5" s="12">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="P5" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>6</v>
-      </c>
-      <c r="R5" s="12">
-        <v>32</v>
-      </c>
-      <c r="S5" s="12">
-        <v>10</v>
-      </c>
-      <c r="T5" s="12">
-        <v>3.6666666666666665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>25</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="13">
-        <v>45300</v>
-      </c>
-      <c r="H6" s="12">
-        <v>6</v>
-      </c>
-      <c r="I6" s="12">
-        <v>30</v>
-      </c>
-      <c r="J6" s="12">
-        <v>21</v>
-      </c>
-      <c r="K6" s="12">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L6" s="13">
-        <v>45305</v>
-      </c>
-      <c r="M6" s="12">
-        <v>25</v>
-      </c>
-      <c r="N6" s="12">
-        <v>19</v>
-      </c>
-      <c r="O6" s="12">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="P6" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>9</v>
-      </c>
-      <c r="R6" s="12">
-        <v>34</v>
-      </c>
-      <c r="S6" s="12">
-        <v>25</v>
-      </c>
-      <c r="T6" s="12">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="U6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="BC6" s="13"/>
-      <c r="BT6" s="13"/>
-    </row>
-    <row r="7" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>31</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="13">
-        <v>45300</v>
-      </c>
-      <c r="H7" s="12">
-        <v>6</v>
-      </c>
-      <c r="I7" s="12">
-        <v>16</v>
-      </c>
-      <c r="J7" s="12">
-        <v>25</v>
-      </c>
-      <c r="K7" s="12">
-        <v>2</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="13">
-        <v>45299</v>
-      </c>
-      <c r="H8" s="12">
-        <v>12</v>
-      </c>
-      <c r="I8" s="12">
-        <v>25</v>
-      </c>
-      <c r="J8" s="12">
-        <v>22</v>
-      </c>
-      <c r="K8" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="L8" s="13">
-        <v>45304</v>
-      </c>
-      <c r="M8" s="12">
-        <v>19</v>
-      </c>
-      <c r="N8" s="12">
-        <v>16</v>
-      </c>
-      <c r="O8" s="12">
+      <c r="T29">
         <v>3.8333333333333335</v>
       </c>
-      <c r="P8" s="13">
-        <v>45309</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>8</v>
-      </c>
-      <c r="R8" s="12">
-        <v>24</v>
-      </c>
-      <c r="S8" s="12">
-        <v>16</v>
-      </c>
-      <c r="T8" s="12">
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="U8" s="13"/>
-    </row>
-    <row r="9" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>39</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H9" s="12">
-        <v>4</v>
-      </c>
-      <c r="I9" s="12">
-        <v>43</v>
-      </c>
-      <c r="J9" s="12">
-        <v>13</v>
-      </c>
-      <c r="K9" s="12">
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="L9" s="13">
-        <v>45304</v>
-      </c>
-      <c r="M9" s="12">
-        <v>31</v>
-      </c>
-      <c r="N9" s="12">
-        <v>17</v>
-      </c>
-      <c r="O9" s="12">
-        <v>3</v>
-      </c>
-      <c r="P9" s="13">
-        <v>45307</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>5</v>
-      </c>
-      <c r="R9" s="12">
-        <v>35</v>
-      </c>
-      <c r="T9" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>28</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="13">
-        <v>45296</v>
-      </c>
-      <c r="L10" s="13">
-        <v>45306</v>
-      </c>
-      <c r="M10" s="12">
-        <v>26</v>
-      </c>
-      <c r="N10" s="12">
-        <v>14</v>
-      </c>
-      <c r="O10" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="P10" s="13">
-        <v>45309</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>3</v>
-      </c>
-      <c r="R10" s="12">
-        <v>34</v>
-      </c>
-      <c r="S10" s="12">
-        <v>25</v>
-      </c>
-      <c r="T10" s="12">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>35</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H11" s="12">
-        <v>10</v>
-      </c>
-      <c r="I11" s="12">
-        <v>35</v>
-      </c>
-      <c r="J11" s="12">
-        <v>14</v>
-      </c>
-      <c r="K11" s="12">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L11" s="13">
-        <v>45305</v>
-      </c>
-      <c r="M11" s="12">
-        <v>22</v>
-      </c>
-      <c r="N11" s="12">
-        <v>21</v>
-      </c>
-      <c r="O11" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>38</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="13">
-        <v>45297</v>
-      </c>
-      <c r="H12" s="12">
-        <v>3</v>
-      </c>
-      <c r="I12" s="12">
-        <v>34</v>
-      </c>
-      <c r="J12" s="12">
-        <v>16</v>
-      </c>
-      <c r="K12" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="L12" s="13">
-        <v>45303</v>
-      </c>
-      <c r="M12" s="12">
-        <v>41</v>
-      </c>
-      <c r="N12" s="12">
-        <v>14</v>
-      </c>
-      <c r="O12" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="P12" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>4</v>
-      </c>
-      <c r="R12" s="12">
-        <v>31</v>
-      </c>
-      <c r="S12" s="12">
-        <v>15</v>
-      </c>
-      <c r="T12" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>38</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="13">
-        <v>45299</v>
-      </c>
-      <c r="H13" s="12">
-        <v>4</v>
-      </c>
-      <c r="I13" s="12">
-        <v>27</v>
-      </c>
-      <c r="J13" s="12">
-        <v>13</v>
-      </c>
-      <c r="K13" s="12">
-        <v>4</v>
-      </c>
-      <c r="L13" s="13">
-        <v>45302</v>
-      </c>
-      <c r="M13" s="12">
-        <v>31</v>
-      </c>
-      <c r="N13" s="12">
-        <v>17</v>
-      </c>
-      <c r="O13" s="12">
-        <v>4</v>
-      </c>
-      <c r="P13" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>5</v>
-      </c>
-      <c r="R13" s="12">
-        <v>27</v>
-      </c>
-      <c r="S13" s="12">
-        <v>12</v>
-      </c>
-      <c r="T13" s="12">
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12">
-        <v>32</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H14" s="12">
-        <v>8</v>
-      </c>
-      <c r="I14" s="12">
-        <v>37</v>
-      </c>
-      <c r="J14" s="12">
-        <v>37</v>
-      </c>
-      <c r="K14" s="12">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="L14" s="13">
-        <v>45302</v>
-      </c>
-      <c r="M14" s="12">
-        <v>30</v>
-      </c>
-      <c r="N14" s="12">
-        <v>30</v>
-      </c>
-      <c r="O14" s="12">
-        <v>3</v>
-      </c>
-      <c r="P14" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>8</v>
-      </c>
-      <c r="R14" s="12">
-        <v>24</v>
-      </c>
-      <c r="S14" s="12">
-        <v>25</v>
-      </c>
-      <c r="T14" s="12">
-        <v>3</v>
-      </c>
-      <c r="U14" s="13">
-        <v>45298</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="W14" s="12">
-        <v>-7</v>
-      </c>
-      <c r="X14" s="12">
-        <v>-7</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="12">
-        <v>6</v>
-      </c>
-      <c r="AD14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="12">
-        <v>3</v>
-      </c>
-      <c r="AI14" s="12">
-        <v>30</v>
-      </c>
-      <c r="AJ14" s="12">
-        <v>30</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>45300</v>
-      </c>
-      <c r="AM14" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN14" s="12">
-        <v>-37</v>
-      </c>
-      <c r="AO14" s="12">
-        <v>-12</v>
-      </c>
-      <c r="AP14" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ14" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR14" s="12">
-        <v>4</v>
-      </c>
-      <c r="AS14" s="12">
-        <v>4</v>
-      </c>
-      <c r="AT14" s="12">
-        <v>4.25</v>
-      </c>
-      <c r="AU14" s="12">
-        <v>2</v>
-      </c>
-      <c r="AV14" s="12">
-        <v>2</v>
-      </c>
-      <c r="AW14" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="AX14" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AY14" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="BA14" s="12">
-        <v>25</v>
-      </c>
-      <c r="BC14" s="13">
-        <v>45305</v>
-      </c>
-      <c r="BD14" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="BE14" s="12">
-        <v>-16</v>
-      </c>
-      <c r="BF14" s="12">
-        <v>-19</v>
-      </c>
-      <c r="BG14" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH14" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI14" s="12">
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK14" s="12">
-        <v>6</v>
-      </c>
-      <c r="BL14" s="12">
-        <v>0</v>
-      </c>
-      <c r="BM14" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN14" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="BO14" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="BP14" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="BQ14" s="12">
-        <v>21</v>
-      </c>
-      <c r="BR14" s="12">
-        <v>18</v>
-      </c>
-      <c r="BT14" s="13">
-        <v>45307</v>
-      </c>
-      <c r="BU14" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV14" s="12">
-        <v>-17</v>
-      </c>
-      <c r="BW14" s="12">
-        <v>-17</v>
-      </c>
-      <c r="BX14" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BY14" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BZ14" s="12">
-        <v>2</v>
-      </c>
-      <c r="CA14" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB14" s="12">
-        <v>4</v>
-      </c>
-      <c r="CC14" s="12">
-        <v>2</v>
-      </c>
-      <c r="CD14" s="12">
-        <v>0</v>
-      </c>
-      <c r="CE14" s="12">
-        <v>0</v>
-      </c>
-      <c r="CF14" s="12">
-        <v>0</v>
-      </c>
-      <c r="CG14" s="12">
-        <v>0</v>
-      </c>
-      <c r="CH14" s="12">
-        <v>20</v>
-      </c>
-      <c r="CI14" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>37</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H15" s="12">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12">
-        <v>34</v>
-      </c>
-      <c r="J15" s="12">
-        <v>11</v>
-      </c>
-      <c r="K15" s="12">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="L15" s="13">
-        <v>45305</v>
-      </c>
-      <c r="M15" s="12">
-        <v>39</v>
-      </c>
-      <c r="N15" s="12">
-        <v>11</v>
-      </c>
-      <c r="O15" s="12">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="P15" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>4</v>
-      </c>
-      <c r="R15" s="12">
-        <v>39</v>
-      </c>
-      <c r="S15" s="12">
-        <v>17</v>
-      </c>
-      <c r="T15" s="12">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="U15" s="13">
-        <v>45300</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="W15" s="12">
-        <v>0</v>
-      </c>
-      <c r="X15" s="12">
-        <v>-6</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA15" s="12">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="AC15" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="AD15" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AE15" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AG15" s="12">
-        <v>-1.25</v>
-      </c>
-      <c r="AH15" s="12">
-        <v>2.75</v>
-      </c>
-      <c r="AI15" s="12">
-        <v>11</v>
-      </c>
-      <c r="AJ15" s="12">
-        <v>28</v>
-      </c>
-      <c r="AL15" s="13">
-        <v>45304</v>
-      </c>
-      <c r="AM15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN15" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AO15" s="12">
-        <v>-7</v>
-      </c>
-      <c r="AP15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="AR15" s="12">
-        <v>5</v>
-      </c>
-      <c r="AS15" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="AT15" s="12">
-        <v>6</v>
-      </c>
-      <c r="AU15" s="12">
-        <v>5.4</v>
-      </c>
-      <c r="AV15" s="12">
-        <v>2</v>
-      </c>
-      <c r="AW15" s="12">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="AZ15" s="12">
-        <v>10</v>
-      </c>
-      <c r="BA15" s="12">
-        <v>27</v>
-      </c>
-      <c r="BC15" s="13">
-        <v>45307</v>
-      </c>
-      <c r="BD15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE15" s="12">
-        <v>2</v>
-      </c>
-      <c r="BF15" s="12">
-        <v>5</v>
-      </c>
-      <c r="BG15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="BH15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="BI15" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="BJ15" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="BK15" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="BL15" s="12">
-        <v>5</v>
-      </c>
-      <c r="BM15" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN15" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="BO15" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="BP15" s="12">
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="12">
-        <v>13</v>
-      </c>
-      <c r="BR15" s="12">
-        <v>39</v>
-      </c>
-      <c r="BT15" s="13">
-        <v>45308</v>
-      </c>
-      <c r="BU15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV15" s="12">
-        <v>1</v>
-      </c>
-      <c r="BW15" s="12">
-        <v>6</v>
-      </c>
-      <c r="BX15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="BY15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="BZ15" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="CA15" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="CB15" s="12">
-        <v>6</v>
-      </c>
-      <c r="CC15" s="12">
-        <v>5</v>
-      </c>
-      <c r="CD15" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE15" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="CF15" s="12">
-        <v>-0.75</v>
-      </c>
-      <c r="CG15" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="CH15" s="12">
-        <v>12</v>
-      </c>
-      <c r="CI15" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <v>32</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H16" s="12">
-        <v>5</v>
-      </c>
-      <c r="I16" s="12">
-        <v>34</v>
-      </c>
-      <c r="J16" s="12">
-        <v>13</v>
-      </c>
-      <c r="K16" s="12">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="L16" s="13">
-        <v>45302</v>
-      </c>
-      <c r="M16" s="12">
-        <v>21</v>
-      </c>
-      <c r="N16" s="12">
-        <v>16</v>
-      </c>
-      <c r="O16" s="12">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="P16" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>6</v>
-      </c>
-      <c r="R16" s="12">
-        <v>29</v>
-      </c>
-      <c r="S16" s="12">
-        <v>12</v>
-      </c>
-      <c r="T16" s="12">
-        <v>4</v>
-      </c>
-      <c r="U16" s="13">
-        <v>45297</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="W16" s="12">
-        <v>1</v>
-      </c>
-      <c r="X16" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z16" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA16" s="12">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="AC16" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="AD16" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="AE16" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF16" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="AG16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="12">
-        <v>2.25</v>
-      </c>
-      <c r="AI16" s="12">
-        <v>14</v>
-      </c>
-      <c r="AJ16" s="12">
-        <v>33</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>45300</v>
-      </c>
-      <c r="AM16" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="12">
-        <v>-9</v>
-      </c>
-      <c r="AP16" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ16" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR16" s="12">
-        <v>4</v>
-      </c>
-      <c r="AS16" s="12">
-        <v>4</v>
-      </c>
-      <c r="AT16" s="12">
-        <v>5.75</v>
-      </c>
-      <c r="AU16" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="AV16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="AX16" s="12">
-        <v>-1.5</v>
-      </c>
-      <c r="AY16" s="12">
-        <v>-0.75</v>
-      </c>
-      <c r="AZ16" s="12">
-        <v>14</v>
-      </c>
-      <c r="BA16" s="12">
-        <v>25</v>
-      </c>
-      <c r="BC16" s="13">
-        <v>45304</v>
-      </c>
-      <c r="BD16" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="BE16" s="12">
-        <v>2</v>
-      </c>
-      <c r="BF16" s="12">
-        <v>-8</v>
-      </c>
-      <c r="BG16" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH16" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI16" s="12">
-        <v>5</v>
-      </c>
-      <c r="BJ16" s="12">
-        <v>5</v>
-      </c>
-      <c r="BK16" s="12">
-        <v>5.75</v>
-      </c>
-      <c r="BL16" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="BM16" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN16" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="BO16" s="12">
-        <v>-0.75</v>
-      </c>
-      <c r="BP16" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="BQ16" s="12">
-        <v>15</v>
-      </c>
-      <c r="BR16" s="12">
-        <v>26</v>
-      </c>
-      <c r="BT16" s="13">
-        <v>45307</v>
-      </c>
-      <c r="BU16" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV16" s="12">
-        <v>2</v>
-      </c>
-      <c r="BW16" s="12">
-        <v>-3</v>
-      </c>
-      <c r="BZ16" s="12">
-        <v>5</v>
-      </c>
-      <c r="CA16" s="12">
-        <v>4.8</v>
-      </c>
-      <c r="CB16" s="12">
-        <v>5.75</v>
-      </c>
-      <c r="CC16" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="CD16" s="12">
-        <v>1</v>
-      </c>
-      <c r="CE16" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="CF16" s="12">
-        <v>-0.25</v>
-      </c>
-      <c r="CG16" s="12">
-        <v>-0.75</v>
-      </c>
-      <c r="CH16" s="12">
-        <v>15</v>
-      </c>
-      <c r="CI16" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>27</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="13">
-        <v>45299</v>
-      </c>
-      <c r="H17" s="12">
-        <v>7</v>
-      </c>
-      <c r="I17" s="12">
-        <v>37</v>
-      </c>
-      <c r="J17" s="12">
-        <v>24</v>
-      </c>
-      <c r="K17" s="12">
-        <v>4</v>
-      </c>
-      <c r="L17" s="13">
-        <v>45305</v>
-      </c>
-      <c r="O17" s="12">
-        <v>4</v>
-      </c>
-      <c r="P17" s="13">
-        <v>45309</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>4</v>
-      </c>
-      <c r="R17" s="12">
-        <v>30</v>
-      </c>
-      <c r="S17" s="12">
-        <v>18</v>
-      </c>
-      <c r="T17" s="12">
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="U17" s="13">
-        <v>45300</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="W17" s="12">
-        <v>-7</v>
-      </c>
-      <c r="X17" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z17" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA17" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="AB17" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AC17" s="12">
-        <v>4.75</v>
-      </c>
-      <c r="AD17" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="AE17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="AG17" s="12">
-        <v>-1.25</v>
-      </c>
-      <c r="AH17" s="12">
-        <v>3.25</v>
-      </c>
-      <c r="AI17" s="12">
-        <v>17</v>
-      </c>
-      <c r="AJ17" s="12">
-        <v>41</v>
-      </c>
-      <c r="AL17" s="13">
-        <v>45305</v>
-      </c>
-      <c r="AM17" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN17" s="12">
-        <v>-7</v>
-      </c>
-      <c r="AO17" s="12">
-        <v>-6</v>
-      </c>
-      <c r="AP17" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ17" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR17" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="AS17" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="AT17" s="12">
-        <v>4.25</v>
-      </c>
-      <c r="AU17" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="AV17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="AX17" s="12">
-        <v>-1.5</v>
-      </c>
-      <c r="AY17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="12">
-        <v>17</v>
-      </c>
-      <c r="BA17" s="12">
-        <v>31</v>
-      </c>
-      <c r="BC17" s="13">
-        <v>45307</v>
-      </c>
-      <c r="BD17" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="BE17" s="12">
-        <v>-1</v>
-      </c>
-      <c r="BF17" s="12">
-        <v>0</v>
-      </c>
-      <c r="BG17" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="BH17" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI17" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="BJ17" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="BK17" s="12">
-        <v>4</v>
-      </c>
-      <c r="BL17" s="12">
-        <v>4</v>
-      </c>
-      <c r="BM17" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN17" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BO17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="BP17" s="12">
-        <v>1</v>
-      </c>
-      <c r="BQ17" s="12">
-        <v>23</v>
-      </c>
-      <c r="BR17" s="12">
-        <v>37</v>
-      </c>
-      <c r="BT17" s="13"/>
-    </row>
-    <row r="18" spans="1:88" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <v>34</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H18" s="12">
-        <v>5</v>
-      </c>
-      <c r="I18" s="12">
-        <v>31</v>
-      </c>
-      <c r="J18" s="12">
-        <v>15</v>
-      </c>
-      <c r="K18" s="12">
-        <v>4</v>
-      </c>
-      <c r="L18" s="13">
-        <v>45302</v>
-      </c>
-      <c r="M18" s="12">
-        <v>38</v>
-      </c>
-      <c r="N18" s="12">
-        <v>12</v>
-      </c>
-      <c r="O18" s="12">
-        <v>4</v>
-      </c>
-      <c r="P18" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>0</v>
-      </c>
-      <c r="R18" s="12">
-        <v>43</v>
-      </c>
-      <c r="S18" s="12">
-        <v>11</v>
-      </c>
-      <c r="T18" s="12">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="U18" s="13">
-        <v>45298</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="W18" s="12">
-        <v>1</v>
-      </c>
-      <c r="X18" s="12">
-        <v>-4</v>
-      </c>
-      <c r="Y18" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z18" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA18" s="12">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AC18" s="12">
-        <v>3.75</v>
-      </c>
-      <c r="AD18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AF18" s="12">
-        <v>-0.4</v>
-      </c>
-      <c r="AG18" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AH18" s="12">
-        <v>2.25</v>
-      </c>
-      <c r="AI18" s="12">
-        <v>16</v>
-      </c>
-      <c r="AJ18" s="12">
-        <v>27</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>45300</v>
-      </c>
-      <c r="AM18" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN18" s="12">
-        <v>-2</v>
-      </c>
-      <c r="AO18" s="12">
-        <v>2</v>
-      </c>
-      <c r="AP18" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ18" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AR18" s="12">
-        <v>4</v>
-      </c>
-      <c r="AS18" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="AT18" s="12">
-        <v>5</v>
-      </c>
-      <c r="AU18" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="AV18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="AX18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AY18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AZ18" s="12">
-        <v>13</v>
-      </c>
-      <c r="BA18" s="12">
-        <v>33</v>
-      </c>
-      <c r="BC18" s="13">
-        <v>45305</v>
-      </c>
-      <c r="BD18" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="BE18" s="12">
-        <v>-5</v>
-      </c>
-      <c r="BF18" s="12">
-        <v>9</v>
-      </c>
-      <c r="BG18" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="BH18" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI18" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="BJ18" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="BK18" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="BL18" s="12">
-        <v>1</v>
-      </c>
-      <c r="BM18" s="12">
-        <v>-2</v>
-      </c>
-      <c r="BN18" s="12">
-        <v>-1.2</v>
-      </c>
-      <c r="BO18" s="12">
-        <v>-0.75</v>
-      </c>
-      <c r="BP18" s="12">
-        <v>-1</v>
-      </c>
-      <c r="BQ18" s="12">
-        <v>10</v>
-      </c>
-      <c r="BR18" s="12">
-        <v>40</v>
-      </c>
-      <c r="BT18" s="13">
-        <v>45307</v>
-      </c>
-      <c r="BU18" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV18" s="12">
-        <v>-5</v>
-      </c>
-      <c r="BW18" s="12">
-        <v>10</v>
-      </c>
-      <c r="BX18" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="BY18" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="CH18" s="12">
-        <v>10</v>
-      </c>
-      <c r="CI18" s="12">
-        <v>41</v>
-      </c>
-      <c r="CJ18" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:88" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>29</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>35</v>
-      </c>
-      <c r="J19" s="12">
-        <v>13</v>
-      </c>
-      <c r="K19" s="12">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="L19" s="13">
-        <v>45302</v>
-      </c>
-      <c r="M19" s="12">
-        <v>21</v>
-      </c>
-      <c r="N19" s="12">
-        <v>10</v>
-      </c>
-      <c r="O19" s="12">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="P19" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>1</v>
-      </c>
-      <c r="R19" s="12">
-        <v>18</v>
-      </c>
-      <c r="S19" s="12">
-        <v>12</v>
-      </c>
-      <c r="T19" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="U19" s="13">
-        <v>45297</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="W19" s="12">
-        <v>-3</v>
-      </c>
-      <c r="X19" s="12">
-        <v>-3</v>
-      </c>
-      <c r="Y19" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z19" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA19" s="12">
-        <v>5</v>
-      </c>
-      <c r="AB19" s="12">
-        <v>4.8</v>
-      </c>
-      <c r="AC19" s="12">
-        <v>4.25</v>
-      </c>
-      <c r="AD19" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="AE19" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="AG19" s="12">
-        <v>-2</v>
-      </c>
-      <c r="AH19" s="12">
-        <v>2</v>
-      </c>
-      <c r="AI19" s="12">
-        <v>10</v>
-      </c>
-      <c r="AJ19" s="12">
-        <v>32</v>
-      </c>
-      <c r="AK19" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL19" s="13">
-        <v>45300</v>
-      </c>
-      <c r="AM19" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN19" s="12">
-        <v>-2</v>
-      </c>
-      <c r="AO19" s="12">
-        <v>-14</v>
-      </c>
-      <c r="AP19" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ19" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="AR19" s="12">
-        <v>6</v>
-      </c>
-      <c r="AS19" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="AT19" s="12">
-        <v>5</v>
-      </c>
-      <c r="AU19" s="12">
-        <v>2</v>
-      </c>
-      <c r="AV19" s="12">
-        <v>-2</v>
-      </c>
-      <c r="AW19" s="12">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="12">
-        <v>-1.75</v>
-      </c>
-      <c r="AY19" s="12">
-        <v>-2.75</v>
-      </c>
-      <c r="AZ19" s="12">
-        <v>11</v>
-      </c>
-      <c r="BA19" s="12">
-        <v>21</v>
-      </c>
-      <c r="BC19" s="13">
-        <v>45305</v>
-      </c>
-      <c r="BD19" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="BE19" s="12">
-        <v>-1</v>
-      </c>
-      <c r="BF19" s="12">
-        <v>-14</v>
-      </c>
-      <c r="BG19" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="BH19" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI19" s="12">
-        <v>6</v>
-      </c>
-      <c r="BJ19" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="BK19" s="12">
-        <v>5.75</v>
-      </c>
-      <c r="BL19" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="BM19" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN19" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="BO19" s="12">
-        <v>-2</v>
-      </c>
-      <c r="BP19" s="12">
-        <v>-0.25</v>
-      </c>
-      <c r="BQ19" s="12">
-        <v>12</v>
-      </c>
-      <c r="BR19" s="12">
-        <v>21</v>
-      </c>
-      <c r="BT19" s="13">
-        <v>45307</v>
-      </c>
-      <c r="BU19" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV19" s="12">
-        <v>-2</v>
-      </c>
-      <c r="BW19" s="12">
-        <v>-18</v>
-      </c>
-      <c r="BX19" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="BY19" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BZ19" s="12">
-        <v>6</v>
-      </c>
-      <c r="CA19" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="CB19" s="12">
-        <v>6</v>
-      </c>
-      <c r="CC19" s="12">
-        <v>4</v>
-      </c>
-      <c r="CD19" s="12">
-        <v>1</v>
-      </c>
-      <c r="CE19" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="CF19" s="12">
-        <v>-2</v>
-      </c>
-      <c r="CG19" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="CH19" s="12">
-        <v>11</v>
-      </c>
-      <c r="CI19" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
-        <v>33</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="13">
-        <v>45297</v>
-      </c>
-      <c r="H20" s="12">
-        <v>2</v>
-      </c>
-      <c r="I20" s="12">
-        <v>39</v>
-      </c>
-      <c r="J20" s="12">
-        <v>11</v>
-      </c>
-      <c r="K20" s="12">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="L20" s="13">
-        <v>45303</v>
-      </c>
-      <c r="M20" s="12">
-        <v>39</v>
-      </c>
-      <c r="N20" s="12">
-        <v>13</v>
-      </c>
-      <c r="O20" s="12">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="P20" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>1</v>
-      </c>
-      <c r="R20" s="12">
-        <v>28</v>
-      </c>
-      <c r="S20" s="12">
-        <v>10</v>
-      </c>
-      <c r="T20" s="12">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="U20" s="13">
-        <v>45299</v>
-      </c>
-      <c r="V20" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="W20" s="12">
-        <v>1</v>
-      </c>
-      <c r="X20" s="12">
-        <v>-5</v>
-      </c>
-      <c r="Y20" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z20" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA20" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="AB20" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="AC20" s="12">
-        <v>6</v>
-      </c>
-      <c r="AD20" s="12">
-        <v>5</v>
-      </c>
-      <c r="AE20" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="AG20" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AH20" s="12">
-        <v>2.75</v>
-      </c>
-      <c r="AI20" s="12">
-        <v>12</v>
-      </c>
-      <c r="AJ20" s="12">
-        <v>34</v>
-      </c>
-      <c r="AL20" s="13">
-        <v>45301</v>
-      </c>
-      <c r="AM20" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN20" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AO20" s="12">
-        <v>-3</v>
-      </c>
-      <c r="AP20" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ20" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR20" s="12">
-        <v>4</v>
-      </c>
-      <c r="AS20" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="AT20" s="12">
-        <v>5.75</v>
-      </c>
-      <c r="AU20" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="AV20" s="12">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="AX20" s="12">
-        <v>-0.25</v>
-      </c>
-      <c r="AY20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="12">
-        <v>10</v>
-      </c>
-      <c r="BA20" s="12">
-        <v>36</v>
-      </c>
-      <c r="BC20" s="13"/>
-      <c r="BT20" s="13"/>
-    </row>
-    <row r="21" spans="1:88" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>30</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="13">
-        <v>45297</v>
-      </c>
-      <c r="H21" s="12">
-        <v>4</v>
-      </c>
-      <c r="I21" s="12">
-        <v>30</v>
-      </c>
-      <c r="J21" s="12">
-        <v>15</v>
-      </c>
-      <c r="K21" s="12">
-        <v>4</v>
-      </c>
-      <c r="L21" s="13">
-        <v>45303</v>
-      </c>
-      <c r="M21" s="12">
-        <v>26</v>
-      </c>
-      <c r="N21" s="12">
-        <v>13</v>
-      </c>
-      <c r="O21" s="12">
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="P21" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>3</v>
-      </c>
-      <c r="R21" s="12">
-        <v>20</v>
-      </c>
-      <c r="S21" s="12">
-        <v>15</v>
-      </c>
-      <c r="T21" s="12">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="U21" s="13">
-        <v>45298</v>
-      </c>
-      <c r="V21" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="W21" s="12">
-        <v>0</v>
-      </c>
-      <c r="X21" s="12">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z21" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA21" s="12">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="AC21" s="12">
-        <v>5.25</v>
-      </c>
-      <c r="AD21" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AE21" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="AG21" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="12">
-        <v>3.25</v>
-      </c>
-      <c r="AI21" s="12">
-        <v>15</v>
-      </c>
-      <c r="AJ21" s="12">
-        <v>33</v>
-      </c>
-      <c r="AL21" s="13">
-        <v>45302</v>
-      </c>
-      <c r="AM21" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN21" s="12">
-        <v>8</v>
-      </c>
-      <c r="AO21" s="12">
-        <v>-3</v>
-      </c>
-      <c r="AP21" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ21" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR21" s="12">
-        <v>5</v>
-      </c>
-      <c r="AS21" s="12">
-        <v>4.8</v>
-      </c>
-      <c r="AT21" s="12">
-        <v>5</v>
-      </c>
-      <c r="AU21" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="AV21" s="12">
-        <v>2</v>
-      </c>
-      <c r="AW21" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="AX21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AY21" s="12">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="12">
-        <v>23</v>
-      </c>
-      <c r="BA21" s="12">
-        <v>27</v>
-      </c>
-      <c r="BC21" s="13">
-        <v>45306</v>
-      </c>
-      <c r="BD21" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="BE21" s="12">
-        <v>-3</v>
-      </c>
-      <c r="BF21" s="12">
-        <v>-1</v>
-      </c>
-      <c r="BG21" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="BH21" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI21" s="12">
-        <v>4</v>
-      </c>
-      <c r="BJ21" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="BK21" s="12">
-        <v>5</v>
-      </c>
-      <c r="BL21" s="12">
-        <v>4</v>
-      </c>
-      <c r="BM21" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN21" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO21" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="BP21" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="BQ21" s="12">
-        <v>12</v>
-      </c>
-      <c r="BR21" s="12">
-        <v>29</v>
-      </c>
-      <c r="BT21" s="13">
-        <v>45307</v>
-      </c>
-      <c r="BU21" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="BV21" s="12">
-        <v>-5</v>
-      </c>
-      <c r="BW21" s="12">
-        <v>-3</v>
-      </c>
-      <c r="BX21" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BY21" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="BZ21" s="12">
-        <v>5</v>
-      </c>
-      <c r="CA21" s="12">
-        <v>5</v>
-      </c>
-      <c r="CB21" s="12">
-        <v>5</v>
-      </c>
-      <c r="CC21" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="CD21" s="12">
-        <v>1</v>
-      </c>
-      <c r="CE21" s="12">
-        <v>1</v>
-      </c>
-      <c r="CF21" s="12">
-        <v>0</v>
-      </c>
-      <c r="CG21" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="CH21" s="12">
-        <v>10</v>
-      </c>
-      <c r="CI21" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:88" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>32</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H22" s="12">
-        <v>10</v>
-      </c>
-      <c r="I22" s="12">
-        <v>31</v>
-      </c>
-      <c r="J22" s="12">
-        <v>19</v>
-      </c>
-      <c r="K22" s="12">
-        <v>4</v>
-      </c>
-      <c r="L22" s="13">
-        <v>45304</v>
-      </c>
-      <c r="M22" s="12">
-        <v>35</v>
-      </c>
-      <c r="N22" s="12">
-        <v>18</v>
-      </c>
-      <c r="O22" s="12">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="P22" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>6</v>
-      </c>
-      <c r="R22" s="12">
-        <v>40</v>
-      </c>
-      <c r="S22" s="12">
-        <v>12</v>
-      </c>
-      <c r="T22" s="12">
-        <v>4</v>
-      </c>
-      <c r="U22" s="13">
-        <v>45299</v>
-      </c>
-      <c r="V22" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="W22" s="12">
-        <v>-5</v>
-      </c>
-      <c r="X22" s="12">
-        <v>-6</v>
-      </c>
-      <c r="Y22" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z22" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA22" s="12">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="AC22" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="AD22" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="AE22" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="12">
-        <v>-0.6</v>
-      </c>
-      <c r="AG22" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="AH22" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="AI22" s="12">
-        <v>14</v>
-      </c>
-      <c r="AJ22" s="12">
-        <v>25</v>
-      </c>
-      <c r="AL22" s="13">
-        <v>45303</v>
-      </c>
-      <c r="AM22" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN22" s="12">
-        <v>-2</v>
-      </c>
-      <c r="AO22" s="12">
-        <v>5</v>
-      </c>
-      <c r="AP22" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ22" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR22" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="AS22" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AT22" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="AU22" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="AV22" s="12">
-        <v>2</v>
-      </c>
-      <c r="AW22" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="AX22" s="12">
-        <v>-1.5</v>
-      </c>
-      <c r="AY22" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="AZ22" s="12">
-        <v>17</v>
-      </c>
-      <c r="BA22" s="12">
-        <v>36</v>
-      </c>
-      <c r="BC22" s="13">
-        <v>45306</v>
-      </c>
-      <c r="BD22" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="BE22" s="12">
-        <v>-4</v>
-      </c>
-      <c r="BF22" s="12">
-        <v>8</v>
-      </c>
-      <c r="BG22" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH22" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI22" s="12">
-        <v>5</v>
-      </c>
-      <c r="BJ22" s="12">
-        <v>4</v>
-      </c>
-      <c r="BK22" s="12">
-        <v>4.75</v>
-      </c>
-      <c r="BL22" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="BM22" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN22" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="BO22" s="12">
-        <v>-1.5</v>
-      </c>
-      <c r="BP22" s="12">
-        <v>0</v>
-      </c>
-      <c r="BQ22" s="12">
-        <v>15</v>
-      </c>
-      <c r="BR22" s="12">
-        <v>39</v>
-      </c>
-      <c r="BT22" s="13">
-        <v>45307</v>
-      </c>
-      <c r="BU22" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="BV22" s="12">
-        <v>-5</v>
-      </c>
-      <c r="BW22" s="12">
-        <v>6</v>
-      </c>
-      <c r="BX22" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="BY22" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BZ22" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="CA22" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="CB22" s="12">
-        <v>4</v>
-      </c>
-      <c r="CC22" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="CD22" s="12">
-        <v>1</v>
-      </c>
-      <c r="CE22" s="12">
-        <v>-0.2</v>
-      </c>
-      <c r="CF22" s="12">
-        <v>-1.25</v>
-      </c>
-      <c r="CG22" s="12">
-        <v>0</v>
-      </c>
-      <c r="CH22" s="12">
-        <v>14</v>
-      </c>
-      <c r="CI22" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:88" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>31</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H23" s="12">
-        <v>10</v>
-      </c>
-      <c r="I23" s="12">
-        <v>31</v>
-      </c>
-      <c r="J23" s="12">
-        <v>23</v>
-      </c>
-      <c r="K23" s="12">
-        <v>4</v>
-      </c>
-      <c r="L23" s="13">
-        <v>45303</v>
-      </c>
-      <c r="M23" s="12">
-        <v>29</v>
-      </c>
-      <c r="N23" s="12">
-        <v>20</v>
-      </c>
-      <c r="O23" s="12">
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="P23" s="13">
-        <v>45309</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>9</v>
-      </c>
-      <c r="R23" s="12">
-        <v>28</v>
-      </c>
-      <c r="S23" s="12">
-        <v>27</v>
-      </c>
-      <c r="T23" s="12">
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="U23" s="13">
-        <v>45298</v>
-      </c>
-      <c r="V23" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="W23" s="12">
-        <v>-3</v>
-      </c>
-      <c r="X23" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Y23" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z23" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA23" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="AB23" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="AC23" s="12">
-        <v>2.75</v>
-      </c>
-      <c r="AD23" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="AE23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="12">
-        <v>-0.75</v>
-      </c>
-      <c r="AH23" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="AI23" s="12">
-        <v>20</v>
-      </c>
-      <c r="AJ23" s="12">
-        <v>30</v>
-      </c>
-      <c r="AL23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BT23" s="13"/>
-    </row>
-    <row r="24" spans="1:88" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1</v>
-      </c>
-      <c r="E24" s="12">
-        <v>23</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H24" s="12">
-        <v>8</v>
-      </c>
-      <c r="I24" s="12">
-        <v>34</v>
-      </c>
-      <c r="J24" s="12">
-        <v>15</v>
-      </c>
-      <c r="K24" s="12">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BT24" s="13"/>
-    </row>
-    <row r="25" spans="1:88" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12">
-        <v>37</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="13">
-        <v>45297</v>
-      </c>
-      <c r="H25" s="12">
-        <v>11</v>
-      </c>
-      <c r="I25" s="12">
-        <v>28</v>
-      </c>
-      <c r="J25" s="12">
-        <v>39</v>
-      </c>
-      <c r="K25" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="BC25" s="13"/>
-      <c r="BT25" s="13"/>
-    </row>
-    <row r="26" spans="1:88" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="E26" s="12">
-        <v>21</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H26" s="12">
-        <v>8</v>
-      </c>
-      <c r="I26" s="12">
-        <v>26</v>
-      </c>
-      <c r="J26" s="12">
-        <v>15</v>
-      </c>
-      <c r="K26" s="12">
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="BC26" s="13"/>
-      <c r="BT26" s="13"/>
-    </row>
-    <row r="27" spans="1:88" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>21</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="13">
-        <v>45296</v>
-      </c>
-      <c r="H27" s="12">
-        <v>5</v>
-      </c>
-      <c r="I27" s="12">
-        <v>36</v>
-      </c>
-      <c r="J27" s="12">
-        <v>18</v>
-      </c>
-      <c r="K27" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="L27" s="13">
-        <v>45305</v>
-      </c>
-      <c r="M27" s="12">
-        <v>29</v>
-      </c>
-      <c r="N27" s="12">
-        <v>12</v>
-      </c>
-      <c r="O27" s="12">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="P27" s="13">
-        <v>45309</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>9</v>
-      </c>
-      <c r="R27" s="12">
-        <v>29</v>
-      </c>
-      <c r="S27" s="12">
-        <v>16</v>
-      </c>
-      <c r="T27" s="12">
-        <v>4</v>
-      </c>
-      <c r="U27" s="13">
-        <v>45297</v>
-      </c>
-      <c r="V27" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="W27" s="12">
-        <v>-4</v>
-      </c>
-      <c r="X27" s="12">
-        <v>-3</v>
-      </c>
-      <c r="Y27" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z27" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA27" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="AB27" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="AC27" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="AD27" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AE27" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF27" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AG27" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="AH27" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="AI27" s="12">
-        <v>14</v>
-      </c>
-      <c r="AJ27" s="12">
-        <v>33</v>
-      </c>
-      <c r="AK27" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL27" s="13">
-        <v>45301</v>
-      </c>
-      <c r="AM27" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN27" s="12">
-        <v>-7</v>
-      </c>
-      <c r="AO27" s="12">
-        <v>-10</v>
-      </c>
-      <c r="AP27" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ27" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR27" s="12">
-        <v>6</v>
-      </c>
-      <c r="AS27" s="12">
-        <v>5.6</v>
-      </c>
-      <c r="AT27" s="12">
-        <v>5</v>
-      </c>
-      <c r="AU27" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="AV27" s="12">
-        <v>2</v>
-      </c>
-      <c r="AW27" s="12">
-        <v>2</v>
-      </c>
-      <c r="AX27" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AY27" s="12">
-        <v>-0.75</v>
-      </c>
-      <c r="AZ27" s="12">
-        <v>11</v>
-      </c>
-      <c r="BA27" s="12">
-        <v>26</v>
-      </c>
-      <c r="BC27" s="13">
-        <v>45305</v>
-      </c>
-      <c r="BE27" s="12">
-        <v>-5</v>
-      </c>
-      <c r="BF27" s="12">
-        <v>-17</v>
-      </c>
-      <c r="BG27" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH27" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI27" s="12">
-        <v>6</v>
-      </c>
-      <c r="BJ27" s="12">
-        <v>6</v>
-      </c>
-      <c r="BK27" s="12">
-        <v>6</v>
-      </c>
-      <c r="BL27" s="12">
-        <v>6</v>
-      </c>
-      <c r="BM27" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN27" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BO27" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="BP27" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="BQ27" s="12">
-        <v>13</v>
-      </c>
-      <c r="BR27" s="12">
-        <v>19</v>
-      </c>
-      <c r="BT27" s="13">
-        <v>45306</v>
-      </c>
-      <c r="BU27" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="BV27" s="12">
-        <v>-6</v>
-      </c>
-      <c r="BW27" s="12">
-        <v>-8</v>
-      </c>
-      <c r="BX27" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="BY27" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="BZ27" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="CA27" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="CB27" s="12">
-        <v>5</v>
-      </c>
-      <c r="CC27" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="CD27" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE27" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="CF27" s="12">
-        <v>-1.25</v>
-      </c>
-      <c r="CG27" s="12">
-        <v>-0.25</v>
-      </c>
-      <c r="CH27" s="12">
-        <v>12</v>
-      </c>
-      <c r="CI27" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0</v>
-      </c>
-      <c r="E28" s="12">
-        <v>36</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="13">
-        <v>45297</v>
-      </c>
-      <c r="H28" s="12">
-        <v>6</v>
-      </c>
-      <c r="I28" s="12">
-        <v>21</v>
-      </c>
-      <c r="J28" s="12">
-        <v>17</v>
-      </c>
-      <c r="K28" s="12">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="L28" s="13">
-        <v>45303</v>
-      </c>
-      <c r="M28" s="12">
-        <v>23</v>
-      </c>
-      <c r="N28" s="12">
-        <v>13</v>
-      </c>
-      <c r="O28" s="12">
-        <v>5</v>
-      </c>
-      <c r="P28" s="13">
-        <v>45308</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>6</v>
-      </c>
-      <c r="R28" s="12">
-        <v>19</v>
-      </c>
-      <c r="S28" s="12">
-        <v>19</v>
-      </c>
-      <c r="T28" s="12">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="U28" s="13">
-        <v>45298</v>
-      </c>
-      <c r="V28" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="W28" s="12">
-        <v>-1</v>
-      </c>
-      <c r="X28" s="12">
-        <v>-2</v>
-      </c>
-      <c r="Y28" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z28" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA28" s="12">
-        <v>6</v>
-      </c>
-      <c r="AB28" s="12">
-        <v>6</v>
-      </c>
-      <c r="AC28" s="12">
-        <v>6</v>
-      </c>
-      <c r="AD28" s="12">
-        <v>5.4</v>
-      </c>
-      <c r="AE28" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF28" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="AG28" s="12">
-        <v>-0.75</v>
-      </c>
-      <c r="AH28" s="12">
-        <v>3</v>
-      </c>
-      <c r="AI28" s="12">
-        <v>16</v>
-      </c>
-      <c r="AJ28" s="12">
-        <v>19</v>
-      </c>
-      <c r="AL28" s="13">
-        <v>45301</v>
-      </c>
-      <c r="AM28" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN28" s="12">
-        <v>-2</v>
-      </c>
-      <c r="AO28" s="12">
-        <v>-3</v>
-      </c>
-      <c r="AP28" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ28" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR28" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="AS28" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="AT28" s="12">
-        <v>6</v>
-      </c>
-      <c r="AU28" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="AV28" s="12">
-        <v>1</v>
-      </c>
-      <c r="AW28" s="12">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="12">
-        <v>-1.5</v>
-      </c>
-      <c r="AY28" s="12">
-        <v>-2.25</v>
-      </c>
-      <c r="AZ28" s="12">
-        <v>15</v>
-      </c>
-      <c r="BA28" s="12">
-        <v>18</v>
-      </c>
-      <c r="BC28" s="13">
-        <v>45304</v>
-      </c>
-      <c r="BD28" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="BE28" s="12">
-        <v>-4</v>
-      </c>
-      <c r="BF28" s="12">
-        <v>-4</v>
-      </c>
-      <c r="BG28" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="BH28" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="BI28" s="12">
-        <v>6</v>
-      </c>
-      <c r="BJ28" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="BK28" s="12">
-        <v>6</v>
-      </c>
-      <c r="BL28" s="12">
-        <v>5.8</v>
-      </c>
-      <c r="BM28" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN28" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BO28" s="12">
-        <v>0</v>
-      </c>
-      <c r="BP28" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="BQ28" s="12">
-        <v>13</v>
-      </c>
-      <c r="BR28" s="12">
-        <v>17</v>
-      </c>
-      <c r="BT28" s="13">
-        <v>45307</v>
-      </c>
-      <c r="BU28" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV28" s="12">
-        <v>-4</v>
-      </c>
-      <c r="BW28" s="12">
-        <v>-1</v>
-      </c>
-      <c r="BX28" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BY28" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BZ28" s="12">
-        <v>6</v>
-      </c>
-      <c r="CA28" s="12">
-        <v>6</v>
-      </c>
-      <c r="CB28" s="12">
-        <v>6</v>
-      </c>
-      <c r="CC28" s="12">
-        <v>6</v>
-      </c>
-      <c r="CD28" s="12">
-        <v>3</v>
-      </c>
-      <c r="CE28" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="CF28" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="CG28" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="CH28" s="12">
-        <v>13</v>
-      </c>
-      <c r="CI28" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:88" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0</v>
-      </c>
-      <c r="E29" s="12">
-        <v>29</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="13">
-        <v>45299</v>
-      </c>
-      <c r="H29" s="12">
-        <v>6</v>
-      </c>
-      <c r="I29" s="12">
-        <v>40</v>
-      </c>
-      <c r="J29" s="12">
-        <v>25</v>
-      </c>
-      <c r="K29" s="12">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="L29" s="13">
-        <v>45305</v>
-      </c>
-      <c r="M29" s="12">
-        <v>39</v>
-      </c>
-      <c r="N29" s="12">
-        <v>22</v>
-      </c>
-      <c r="O29" s="12">
-        <v>4</v>
-      </c>
-      <c r="P29" s="13">
-        <v>45306</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>3</v>
-      </c>
-      <c r="R29" s="12">
-        <v>42</v>
-      </c>
-      <c r="S29" s="12">
-        <v>15</v>
-      </c>
-      <c r="T29" s="12">
-        <v>4</v>
-      </c>
-      <c r="U29" s="13">
-        <v>45300</v>
-      </c>
-      <c r="V29" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="W29" s="12">
-        <v>4</v>
-      </c>
-      <c r="X29" s="12">
-        <v>-3</v>
-      </c>
-      <c r="Y29" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z29" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA29" s="12">
-        <v>6</v>
-      </c>
-      <c r="AB29" s="12">
-        <v>5.6</v>
-      </c>
-      <c r="AC29" s="12">
-        <v>4.25</v>
-      </c>
-      <c r="AD29" s="12">
-        <v>5.6</v>
-      </c>
-      <c r="AE29" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF29" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="AG29" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AH29" s="12">
-        <v>2</v>
-      </c>
-      <c r="AI29" s="12">
-        <v>29</v>
-      </c>
-      <c r="AJ29" s="12">
-        <v>37</v>
-      </c>
-      <c r="AL29" s="13">
-        <v>45303</v>
-      </c>
-      <c r="AM29" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN29" s="12">
-        <v>-7</v>
-      </c>
-      <c r="AO29" s="12">
-        <v>-1</v>
-      </c>
-      <c r="AP29" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ29" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR29" s="12">
-        <v>5</v>
-      </c>
-      <c r="AS29" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AT29" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="AU29" s="12">
-        <v>6</v>
-      </c>
-      <c r="AV29" s="12">
-        <v>1</v>
-      </c>
-      <c r="AW29" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="AX29" s="12">
-        <v>-1.75</v>
-      </c>
-      <c r="AY29" s="12">
-        <v>-1.5</v>
-      </c>
-      <c r="AZ29" s="12">
-        <v>18</v>
-      </c>
-      <c r="BA29" s="12">
-        <v>39</v>
-      </c>
-      <c r="BC29" s="13">
-        <v>45306</v>
-      </c>
-      <c r="BD29" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="BE29" s="12">
-        <v>-7</v>
-      </c>
-      <c r="BF29" s="12">
-        <v>1</v>
-      </c>
-      <c r="BG29" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="BH29" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="BI29" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="BJ29" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="BK29" s="12">
-        <v>6</v>
-      </c>
-      <c r="BL29" s="12">
-        <v>4</v>
-      </c>
-      <c r="BM29" s="12">
-        <v>2</v>
-      </c>
-      <c r="BN29" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="BO29" s="12">
-        <v>-2.5</v>
-      </c>
-      <c r="BP29" s="12">
-        <v>-2</v>
-      </c>
-      <c r="BQ29" s="12">
-        <v>18</v>
-      </c>
-      <c r="BR29" s="12">
-        <v>41</v>
-      </c>
-      <c r="BT29" s="13"/>
+      <c r="U29" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:CR2" xr:uid="{CFD4506E-7787-40B5-B507-F98025B636B3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:CR29">
+      <sortCondition ref="A2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>